--- a/Collections/Gkh khams/json.xlsx
+++ b/Collections/Gkh khams/json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\GitHub\rKTs\Collections\Gkh khams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239134A8-310C-4BF4-A881-E32312E8FEC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C378A183-6B62-4342-AFA2-03B7D8F26FE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16905" xr2:uid="{8E27F229-CDE5-42DE-8DB5-46396D76831B}"/>
   </bookViews>
@@ -5972,8 +5972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE2A119-F8B2-4AF5-8A50-7A3BEBA3D62A}">
   <dimension ref="A1:F930"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="E450" sqref="E450"/>
+    <sheetView tabSelected="1" topLeftCell="A865" workbookViewId="0">
+      <selection activeCell="E883" sqref="E883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17409,8 +17409,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <f t="shared" si="24"/>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C500" t="str">
         <f t="shared" si="25"/>
@@ -17420,8 +17419,7 @@
         <v>930</v>
       </c>
       <c r="E500">
-        <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F500" t="s">
         <v>1429</v>
@@ -17433,7 +17431,7 @@
       </c>
       <c r="B501">
         <f t="shared" si="24"/>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C501" t="str">
         <f t="shared" si="25"/>
@@ -17444,7 +17442,7 @@
       </c>
       <c r="E501">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F501" t="s">
         <v>1430</v>
@@ -17456,7 +17454,7 @@
       </c>
       <c r="B502">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C502" t="str">
         <f t="shared" si="25"/>
@@ -17467,7 +17465,7 @@
       </c>
       <c r="E502">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F502" t="s">
         <v>1431</v>
@@ -17479,7 +17477,7 @@
       </c>
       <c r="B503">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C503" t="str">
         <f t="shared" si="25"/>
@@ -17490,7 +17488,7 @@
       </c>
       <c r="E503">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F503" t="s">
         <v>1432</v>
@@ -17502,7 +17500,7 @@
       </c>
       <c r="B504">
         <f t="shared" si="24"/>
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C504" t="str">
         <f t="shared" si="25"/>
@@ -17513,7 +17511,7 @@
       </c>
       <c r="E504">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F504" t="s">
         <v>1433</v>
@@ -17525,7 +17523,7 @@
       </c>
       <c r="B505">
         <f t="shared" si="24"/>
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C505" t="str">
         <f t="shared" si="25"/>
@@ -17536,7 +17534,7 @@
       </c>
       <c r="E505">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F505" t="s">
         <v>1434</v>
@@ -17548,7 +17546,7 @@
       </c>
       <c r="B506">
         <f t="shared" si="24"/>
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C506" t="str">
         <f t="shared" si="25"/>
@@ -17559,7 +17557,7 @@
       </c>
       <c r="E506">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F506" t="s">
         <v>1435</v>
@@ -17571,7 +17569,7 @@
       </c>
       <c r="B507">
         <f t="shared" si="24"/>
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C507" t="str">
         <f t="shared" si="25"/>
@@ -17582,7 +17580,7 @@
       </c>
       <c r="E507">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F507" t="s">
         <v>1436</v>
@@ -17594,7 +17592,7 @@
       </c>
       <c r="B508">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C508" t="str">
         <f t="shared" si="25"/>
@@ -17605,7 +17603,7 @@
       </c>
       <c r="E508">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F508" t="s">
         <v>1437</v>
@@ -17617,7 +17615,7 @@
       </c>
       <c r="B509">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C509" t="str">
         <f t="shared" si="25"/>
@@ -17628,7 +17626,7 @@
       </c>
       <c r="E509">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F509" t="s">
         <v>1438</v>
@@ -17640,7 +17638,7 @@
       </c>
       <c r="B510">
         <f t="shared" si="24"/>
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C510" t="str">
         <f t="shared" si="25"/>
@@ -17651,7 +17649,7 @@
       </c>
       <c r="E510">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F510" t="s">
         <v>1439</v>
@@ -17663,7 +17661,7 @@
       </c>
       <c r="B511">
         <f t="shared" si="24"/>
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C511" t="str">
         <f t="shared" si="25"/>
@@ -17674,7 +17672,7 @@
       </c>
       <c r="E511">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F511" t="s">
         <v>1440</v>
@@ -17686,7 +17684,7 @@
       </c>
       <c r="B512">
         <f t="shared" si="24"/>
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C512" t="str">
         <f t="shared" si="25"/>
@@ -17697,7 +17695,7 @@
       </c>
       <c r="E512">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F512" t="s">
         <v>1441</v>
@@ -17709,7 +17707,7 @@
       </c>
       <c r="B513">
         <f t="shared" si="24"/>
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C513" t="str">
         <f t="shared" si="25"/>
@@ -17720,7 +17718,7 @@
       </c>
       <c r="E513">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F513" t="s">
         <v>1442</v>
@@ -17732,7 +17730,7 @@
       </c>
       <c r="B514">
         <f t="shared" si="24"/>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C514" t="str">
         <f t="shared" si="25"/>
@@ -17743,7 +17741,7 @@
       </c>
       <c r="E514">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F514" t="s">
         <v>1443</v>
@@ -17755,7 +17753,7 @@
       </c>
       <c r="B515">
         <f t="shared" si="24"/>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C515" t="str">
         <f t="shared" si="25"/>
@@ -17766,7 +17764,7 @@
       </c>
       <c r="E515">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F515" t="s">
         <v>1444</v>
@@ -17778,7 +17776,7 @@
       </c>
       <c r="B516">
         <f t="shared" si="24"/>
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C516" t="str">
         <f t="shared" si="25"/>
@@ -17789,7 +17787,7 @@
       </c>
       <c r="E516">
         <f t="shared" ref="E516:E579" si="26">E515</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F516" t="s">
         <v>1445</v>
@@ -17801,7 +17799,7 @@
       </c>
       <c r="B517">
         <f t="shared" si="24"/>
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C517" t="str">
         <f t="shared" si="25"/>
@@ -17812,7 +17810,7 @@
       </c>
       <c r="E517">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F517" t="s">
         <v>1446</v>
@@ -17824,7 +17822,7 @@
       </c>
       <c r="B518">
         <f t="shared" si="24"/>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C518" t="str">
         <f t="shared" si="25"/>
@@ -17835,7 +17833,7 @@
       </c>
       <c r="E518">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F518" t="s">
         <v>1447</v>
@@ -17847,7 +17845,7 @@
       </c>
       <c r="B519">
         <f t="shared" si="24"/>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C519" t="str">
         <f t="shared" si="25"/>
@@ -17858,7 +17856,7 @@
       </c>
       <c r="E519">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F519" t="s">
         <v>1448</v>
@@ -17870,7 +17868,7 @@
       </c>
       <c r="B520">
         <f t="shared" si="24"/>
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C520" t="str">
         <f t="shared" si="25"/>
@@ -17881,7 +17879,7 @@
       </c>
       <c r="E520">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F520" t="s">
         <v>1449</v>
@@ -17893,7 +17891,7 @@
       </c>
       <c r="B521">
         <f t="shared" si="24"/>
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C521" t="str">
         <f t="shared" si="25"/>
@@ -17904,7 +17902,7 @@
       </c>
       <c r="E521">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F521" t="s">
         <v>1450</v>
@@ -17916,7 +17914,7 @@
       </c>
       <c r="B522">
         <f t="shared" si="24"/>
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C522" t="str">
         <f t="shared" si="25"/>
@@ -17927,7 +17925,7 @@
       </c>
       <c r="E522">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F522" t="s">
         <v>1451</v>
@@ -17939,7 +17937,7 @@
       </c>
       <c r="B523">
         <f t="shared" si="24"/>
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C523" t="str">
         <f t="shared" si="25"/>
@@ -17950,7 +17948,7 @@
       </c>
       <c r="E523">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F523" t="s">
         <v>1452</v>
@@ -17962,7 +17960,7 @@
       </c>
       <c r="B524">
         <f t="shared" si="24"/>
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C524" t="str">
         <f t="shared" si="25"/>
@@ -17973,7 +17971,7 @@
       </c>
       <c r="E524">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F524" t="s">
         <v>1453</v>
@@ -17985,7 +17983,7 @@
       </c>
       <c r="B525">
         <f t="shared" si="24"/>
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C525" t="str">
         <f t="shared" si="25"/>
@@ -17996,7 +17994,7 @@
       </c>
       <c r="E525">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F525" t="s">
         <v>1454</v>
@@ -18008,7 +18006,7 @@
       </c>
       <c r="B526">
         <f t="shared" si="24"/>
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C526" t="str">
         <f t="shared" si="25"/>
@@ -18019,7 +18017,7 @@
       </c>
       <c r="E526">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F526" t="s">
         <v>1455</v>
@@ -18031,7 +18029,7 @@
       </c>
       <c r="B527">
         <f t="shared" si="24"/>
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C527" t="str">
         <f t="shared" si="25"/>
@@ -18042,7 +18040,7 @@
       </c>
       <c r="E527">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F527" t="s">
         <v>1456</v>
@@ -18054,7 +18052,7 @@
       </c>
       <c r="B528">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C528" t="str">
         <f t="shared" si="25"/>
@@ -18065,7 +18063,7 @@
       </c>
       <c r="E528">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F528" t="s">
         <v>1457</v>
@@ -18077,7 +18075,7 @@
       </c>
       <c r="B529">
         <f t="shared" si="24"/>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C529" t="str">
         <f t="shared" si="25"/>
@@ -18088,7 +18086,7 @@
       </c>
       <c r="E529">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F529" t="s">
         <v>1458</v>
@@ -18100,7 +18098,7 @@
       </c>
       <c r="B530">
         <f t="shared" si="24"/>
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C530" t="str">
         <f t="shared" si="25"/>
@@ -18111,7 +18109,7 @@
       </c>
       <c r="E530">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F530" t="s">
         <v>1459</v>
@@ -18123,7 +18121,7 @@
       </c>
       <c r="B531">
         <f t="shared" si="24"/>
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C531" t="str">
         <f t="shared" si="25"/>
@@ -18134,7 +18132,7 @@
       </c>
       <c r="E531">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F531" t="s">
         <v>1460</v>
@@ -18146,7 +18144,7 @@
       </c>
       <c r="B532">
         <f t="shared" si="24"/>
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C532" t="str">
         <f t="shared" si="25"/>
@@ -18157,7 +18155,7 @@
       </c>
       <c r="E532">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F532" t="s">
         <v>1461</v>
@@ -18169,7 +18167,7 @@
       </c>
       <c r="B533">
         <f t="shared" si="24"/>
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C533" t="str">
         <f t="shared" si="25"/>
@@ -18180,7 +18178,7 @@
       </c>
       <c r="E533">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F533" t="s">
         <v>1462</v>
@@ -18192,7 +18190,7 @@
       </c>
       <c r="B534">
         <f t="shared" si="24"/>
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C534" t="str">
         <f t="shared" si="25"/>
@@ -18203,7 +18201,7 @@
       </c>
       <c r="E534">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F534" t="s">
         <v>1463</v>
@@ -18215,7 +18213,7 @@
       </c>
       <c r="B535">
         <f t="shared" si="24"/>
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C535" t="str">
         <f t="shared" si="25"/>
@@ -18226,7 +18224,7 @@
       </c>
       <c r="E535">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F535" t="s">
         <v>1464</v>
@@ -18238,7 +18236,7 @@
       </c>
       <c r="B536">
         <f t="shared" si="24"/>
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C536" t="str">
         <f t="shared" si="25"/>
@@ -18249,7 +18247,7 @@
       </c>
       <c r="E536">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F536" t="s">
         <v>1465</v>
@@ -18261,7 +18259,7 @@
       </c>
       <c r="B537">
         <f t="shared" si="24"/>
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C537" t="str">
         <f t="shared" si="25"/>
@@ -18272,7 +18270,7 @@
       </c>
       <c r="E537">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F537" t="s">
         <v>1466</v>
@@ -18284,7 +18282,7 @@
       </c>
       <c r="B538">
         <f t="shared" si="24"/>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C538" t="str">
         <f t="shared" si="25"/>
@@ -18295,7 +18293,7 @@
       </c>
       <c r="E538">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F538" t="s">
         <v>1467</v>
@@ -18307,7 +18305,7 @@
       </c>
       <c r="B539">
         <f t="shared" si="24"/>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C539" t="str">
         <f t="shared" si="25"/>
@@ -18318,7 +18316,7 @@
       </c>
       <c r="E539">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F539" t="s">
         <v>1468</v>
@@ -18330,7 +18328,7 @@
       </c>
       <c r="B540">
         <f t="shared" si="24"/>
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C540" t="str">
         <f t="shared" si="25"/>
@@ -18341,7 +18339,7 @@
       </c>
       <c r="E540">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F540" t="s">
         <v>1469</v>
@@ -18353,7 +18351,7 @@
       </c>
       <c r="B541">
         <f t="shared" ref="B541:B604" si="27">IF(C540="a",B540,B540+1)</f>
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C541" t="str">
         <f t="shared" ref="C541:C604" si="28">IF(C540="a","b","a")</f>
@@ -18364,7 +18362,7 @@
       </c>
       <c r="E541">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F541" t="s">
         <v>1470</v>
@@ -18376,7 +18374,7 @@
       </c>
       <c r="B542">
         <f t="shared" si="27"/>
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C542" t="str">
         <f t="shared" si="28"/>
@@ -18387,7 +18385,7 @@
       </c>
       <c r="E542">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F542" t="s">
         <v>1471</v>
@@ -18399,7 +18397,7 @@
       </c>
       <c r="B543">
         <f t="shared" si="27"/>
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C543" t="str">
         <f t="shared" si="28"/>
@@ -18410,7 +18408,7 @@
       </c>
       <c r="E543">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F543" t="s">
         <v>1472</v>
@@ -18422,7 +18420,7 @@
       </c>
       <c r="B544">
         <f t="shared" si="27"/>
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C544" t="str">
         <f t="shared" si="28"/>
@@ -18433,7 +18431,7 @@
       </c>
       <c r="E544">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F544" t="s">
         <v>1473</v>
@@ -18445,7 +18443,7 @@
       </c>
       <c r="B545">
         <f t="shared" si="27"/>
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C545" t="str">
         <f t="shared" si="28"/>
@@ -18456,7 +18454,7 @@
       </c>
       <c r="E545">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F545" t="s">
         <v>1474</v>
@@ -18468,7 +18466,7 @@
       </c>
       <c r="B546">
         <f t="shared" si="27"/>
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C546" t="str">
         <f t="shared" si="28"/>
@@ -18479,7 +18477,7 @@
       </c>
       <c r="E546">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F546" t="s">
         <v>1475</v>
@@ -18491,7 +18489,7 @@
       </c>
       <c r="B547">
         <f t="shared" si="27"/>
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C547" t="str">
         <f t="shared" si="28"/>
@@ -18502,7 +18500,7 @@
       </c>
       <c r="E547">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F547" t="s">
         <v>1476</v>
@@ -18514,7 +18512,7 @@
       </c>
       <c r="B548">
         <f t="shared" si="27"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C548" t="str">
         <f t="shared" si="28"/>
@@ -18525,7 +18523,7 @@
       </c>
       <c r="E548">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F548" t="s">
         <v>1477</v>
@@ -18537,7 +18535,7 @@
       </c>
       <c r="B549">
         <f t="shared" si="27"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C549" t="str">
         <f t="shared" si="28"/>
@@ -18548,7 +18546,7 @@
       </c>
       <c r="E549">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F549" t="s">
         <v>1478</v>
@@ -18560,7 +18558,7 @@
       </c>
       <c r="B550">
         <f t="shared" si="27"/>
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C550" t="str">
         <f t="shared" si="28"/>
@@ -18571,7 +18569,7 @@
       </c>
       <c r="E550">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F550" t="s">
         <v>1479</v>
@@ -18583,7 +18581,7 @@
       </c>
       <c r="B551">
         <f t="shared" si="27"/>
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C551" t="str">
         <f t="shared" si="28"/>
@@ -18594,7 +18592,7 @@
       </c>
       <c r="E551">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F551" t="s">
         <v>1480</v>
@@ -18606,7 +18604,7 @@
       </c>
       <c r="B552">
         <f t="shared" si="27"/>
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C552" t="str">
         <f t="shared" si="28"/>
@@ -18617,7 +18615,7 @@
       </c>
       <c r="E552">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F552" t="s">
         <v>1481</v>
@@ -18629,7 +18627,7 @@
       </c>
       <c r="B553">
         <f t="shared" si="27"/>
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C553" t="str">
         <f t="shared" si="28"/>
@@ -18640,7 +18638,7 @@
       </c>
       <c r="E553">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F553" t="s">
         <v>1482</v>
@@ -18652,7 +18650,7 @@
       </c>
       <c r="B554">
         <f t="shared" si="27"/>
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C554" t="str">
         <f t="shared" si="28"/>
@@ -18663,7 +18661,7 @@
       </c>
       <c r="E554">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F554" t="s">
         <v>1483</v>
@@ -18675,7 +18673,7 @@
       </c>
       <c r="B555">
         <f t="shared" si="27"/>
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C555" t="str">
         <f t="shared" si="28"/>
@@ -18686,7 +18684,7 @@
       </c>
       <c r="E555">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F555" t="s">
         <v>1484</v>
@@ -18698,7 +18696,7 @@
       </c>
       <c r="B556">
         <f t="shared" si="27"/>
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C556" t="str">
         <f t="shared" si="28"/>
@@ -18709,7 +18707,7 @@
       </c>
       <c r="E556">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F556" t="s">
         <v>1485</v>
@@ -18721,7 +18719,7 @@
       </c>
       <c r="B557">
         <f t="shared" si="27"/>
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C557" t="str">
         <f t="shared" si="28"/>
@@ -18732,7 +18730,7 @@
       </c>
       <c r="E557">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F557" t="s">
         <v>1486</v>
@@ -18744,7 +18742,7 @@
       </c>
       <c r="B558">
         <f t="shared" si="27"/>
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C558" t="str">
         <f t="shared" si="28"/>
@@ -18755,7 +18753,7 @@
       </c>
       <c r="E558">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F558" t="s">
         <v>1487</v>
@@ -18767,7 +18765,7 @@
       </c>
       <c r="B559">
         <f t="shared" si="27"/>
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C559" t="str">
         <f t="shared" si="28"/>
@@ -18778,7 +18776,7 @@
       </c>
       <c r="E559">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F559" t="s">
         <v>1488</v>
@@ -18790,7 +18788,7 @@
       </c>
       <c r="B560">
         <f t="shared" si="27"/>
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C560" t="str">
         <f t="shared" si="28"/>
@@ -18801,7 +18799,7 @@
       </c>
       <c r="E560">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F560" t="s">
         <v>1489</v>
@@ -18813,7 +18811,7 @@
       </c>
       <c r="B561">
         <f t="shared" si="27"/>
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C561" t="str">
         <f t="shared" si="28"/>
@@ -18824,7 +18822,7 @@
       </c>
       <c r="E561">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F561" t="s">
         <v>1490</v>
@@ -18836,7 +18834,7 @@
       </c>
       <c r="B562">
         <f t="shared" si="27"/>
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C562" t="str">
         <f t="shared" si="28"/>
@@ -18847,7 +18845,7 @@
       </c>
       <c r="E562">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F562" t="s">
         <v>1491</v>
@@ -18859,7 +18857,7 @@
       </c>
       <c r="B563">
         <f t="shared" si="27"/>
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C563" t="str">
         <f t="shared" si="28"/>
@@ -18870,7 +18868,7 @@
       </c>
       <c r="E563">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F563" t="s">
         <v>1492</v>
@@ -18882,7 +18880,7 @@
       </c>
       <c r="B564">
         <f t="shared" si="27"/>
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C564" t="str">
         <f t="shared" si="28"/>
@@ -18893,7 +18891,7 @@
       </c>
       <c r="E564">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F564" t="s">
         <v>1493</v>
@@ -18905,7 +18903,7 @@
       </c>
       <c r="B565">
         <f t="shared" si="27"/>
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C565" t="str">
         <f t="shared" si="28"/>
@@ -18916,7 +18914,7 @@
       </c>
       <c r="E565">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F565" t="s">
         <v>1494</v>
@@ -18928,7 +18926,7 @@
       </c>
       <c r="B566">
         <f t="shared" si="27"/>
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C566" t="str">
         <f t="shared" si="28"/>
@@ -18939,7 +18937,7 @@
       </c>
       <c r="E566">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F566" t="s">
         <v>1495</v>
@@ -18951,7 +18949,7 @@
       </c>
       <c r="B567">
         <f t="shared" si="27"/>
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C567" t="str">
         <f t="shared" si="28"/>
@@ -18962,7 +18960,7 @@
       </c>
       <c r="E567">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F567" t="s">
         <v>1496</v>
@@ -18974,7 +18972,7 @@
       </c>
       <c r="B568">
         <f t="shared" si="27"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C568" t="str">
         <f t="shared" si="28"/>
@@ -18985,7 +18983,7 @@
       </c>
       <c r="E568">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F568" t="s">
         <v>1497</v>
@@ -18997,7 +18995,7 @@
       </c>
       <c r="B569">
         <f t="shared" si="27"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C569" t="str">
         <f t="shared" si="28"/>
@@ -19008,7 +19006,7 @@
       </c>
       <c r="E569">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F569" t="s">
         <v>1498</v>
@@ -19020,7 +19018,7 @@
       </c>
       <c r="B570">
         <f t="shared" si="27"/>
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C570" t="str">
         <f t="shared" si="28"/>
@@ -19031,7 +19029,7 @@
       </c>
       <c r="E570">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F570" t="s">
         <v>1499</v>
@@ -19043,7 +19041,7 @@
       </c>
       <c r="B571">
         <f t="shared" si="27"/>
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C571" t="str">
         <f t="shared" si="28"/>
@@ -19054,7 +19052,7 @@
       </c>
       <c r="E571">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F571" t="s">
         <v>1500</v>
@@ -19066,7 +19064,7 @@
       </c>
       <c r="B572">
         <f t="shared" si="27"/>
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C572" t="str">
         <f t="shared" si="28"/>
@@ -19077,7 +19075,7 @@
       </c>
       <c r="E572">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F572" t="s">
         <v>1501</v>
@@ -19089,7 +19087,7 @@
       </c>
       <c r="B573">
         <f t="shared" si="27"/>
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C573" t="str">
         <f t="shared" si="28"/>
@@ -19100,7 +19098,7 @@
       </c>
       <c r="E573">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F573" t="s">
         <v>1502</v>
@@ -19112,7 +19110,7 @@
       </c>
       <c r="B574">
         <f t="shared" si="27"/>
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C574" t="str">
         <f t="shared" si="28"/>
@@ -19123,7 +19121,7 @@
       </c>
       <c r="E574">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F574" t="s">
         <v>1503</v>
@@ -19135,7 +19133,7 @@
       </c>
       <c r="B575">
         <f t="shared" si="27"/>
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C575" t="str">
         <f t="shared" si="28"/>
@@ -19146,7 +19144,7 @@
       </c>
       <c r="E575">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F575" t="s">
         <v>1504</v>
@@ -19158,7 +19156,7 @@
       </c>
       <c r="B576">
         <f t="shared" si="27"/>
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C576" t="str">
         <f t="shared" si="28"/>
@@ -19169,7 +19167,7 @@
       </c>
       <c r="E576">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F576" t="s">
         <v>1505</v>
@@ -19181,7 +19179,7 @@
       </c>
       <c r="B577">
         <f t="shared" si="27"/>
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C577" t="str">
         <f t="shared" si="28"/>
@@ -19192,7 +19190,7 @@
       </c>
       <c r="E577">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F577" t="s">
         <v>1506</v>
@@ -19204,7 +19202,7 @@
       </c>
       <c r="B578">
         <f t="shared" si="27"/>
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C578" t="str">
         <f t="shared" si="28"/>
@@ -19215,7 +19213,7 @@
       </c>
       <c r="E578">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F578" t="s">
         <v>1507</v>
@@ -19227,7 +19225,7 @@
       </c>
       <c r="B579">
         <f t="shared" si="27"/>
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C579" t="str">
         <f t="shared" si="28"/>
@@ -19238,7 +19236,7 @@
       </c>
       <c r="E579">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F579" t="s">
         <v>1508</v>
@@ -19250,7 +19248,7 @@
       </c>
       <c r="B580">
         <f t="shared" si="27"/>
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C580" t="str">
         <f t="shared" si="28"/>
@@ -19261,7 +19259,7 @@
       </c>
       <c r="E580">
         <f t="shared" ref="E580:E643" si="29">E579</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F580" t="s">
         <v>1509</v>
@@ -19273,7 +19271,7 @@
       </c>
       <c r="B581">
         <f t="shared" si="27"/>
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C581" t="str">
         <f t="shared" si="28"/>
@@ -19284,7 +19282,7 @@
       </c>
       <c r="E581">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F581" t="s">
         <v>1510</v>
@@ -19296,7 +19294,7 @@
       </c>
       <c r="B582">
         <f t="shared" si="27"/>
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C582" t="str">
         <f t="shared" si="28"/>
@@ -19307,7 +19305,7 @@
       </c>
       <c r="E582">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F582" t="s">
         <v>1511</v>
@@ -19319,7 +19317,7 @@
       </c>
       <c r="B583">
         <f t="shared" si="27"/>
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C583" t="str">
         <f t="shared" si="28"/>
@@ -19330,7 +19328,7 @@
       </c>
       <c r="E583">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F583" t="s">
         <v>1512</v>
@@ -19342,7 +19340,7 @@
       </c>
       <c r="B584">
         <f t="shared" si="27"/>
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C584" t="str">
         <f t="shared" si="28"/>
@@ -19353,7 +19351,7 @@
       </c>
       <c r="E584">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F584" t="s">
         <v>1513</v>
@@ -19365,7 +19363,7 @@
       </c>
       <c r="B585">
         <f t="shared" si="27"/>
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C585" t="str">
         <f t="shared" si="28"/>
@@ -19376,7 +19374,7 @@
       </c>
       <c r="E585">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F585" t="s">
         <v>1514</v>
@@ -19388,7 +19386,7 @@
       </c>
       <c r="B586">
         <f t="shared" si="27"/>
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C586" t="str">
         <f t="shared" si="28"/>
@@ -19399,7 +19397,7 @@
       </c>
       <c r="E586">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F586" t="s">
         <v>1515</v>
@@ -19411,7 +19409,7 @@
       </c>
       <c r="B587">
         <f t="shared" si="27"/>
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C587" t="str">
         <f t="shared" si="28"/>
@@ -19422,7 +19420,7 @@
       </c>
       <c r="E587">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F587" t="s">
         <v>1516</v>
@@ -19434,7 +19432,7 @@
       </c>
       <c r="B588">
         <f t="shared" si="27"/>
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C588" t="str">
         <f t="shared" si="28"/>
@@ -19445,7 +19443,7 @@
       </c>
       <c r="E588">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F588" t="s">
         <v>1517</v>
@@ -19457,7 +19455,7 @@
       </c>
       <c r="B589">
         <f t="shared" si="27"/>
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C589" t="str">
         <f t="shared" si="28"/>
@@ -19468,7 +19466,7 @@
       </c>
       <c r="E589">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F589" t="s">
         <v>1518</v>
@@ -19480,7 +19478,7 @@
       </c>
       <c r="B590">
         <f t="shared" si="27"/>
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C590" t="str">
         <f t="shared" si="28"/>
@@ -19491,7 +19489,7 @@
       </c>
       <c r="E590">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F590" t="s">
         <v>1519</v>
@@ -19503,7 +19501,7 @@
       </c>
       <c r="B591">
         <f t="shared" si="27"/>
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C591" t="str">
         <f t="shared" si="28"/>
@@ -19514,7 +19512,7 @@
       </c>
       <c r="E591">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F591" t="s">
         <v>1520</v>
@@ -19526,7 +19524,7 @@
       </c>
       <c r="B592">
         <f t="shared" si="27"/>
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C592" t="str">
         <f t="shared" si="28"/>
@@ -19537,7 +19535,7 @@
       </c>
       <c r="E592">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F592" t="s">
         <v>1521</v>
@@ -19549,7 +19547,7 @@
       </c>
       <c r="B593">
         <f t="shared" si="27"/>
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C593" t="str">
         <f t="shared" si="28"/>
@@ -19560,7 +19558,7 @@
       </c>
       <c r="E593">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F593" t="s">
         <v>1522</v>
@@ -19572,7 +19570,7 @@
       </c>
       <c r="B594">
         <f t="shared" si="27"/>
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C594" t="str">
         <f t="shared" si="28"/>
@@ -19583,7 +19581,7 @@
       </c>
       <c r="E594">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F594" t="s">
         <v>1523</v>
@@ -19595,7 +19593,7 @@
       </c>
       <c r="B595">
         <f t="shared" si="27"/>
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C595" t="str">
         <f t="shared" si="28"/>
@@ -19606,7 +19604,7 @@
       </c>
       <c r="E595">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F595" t="s">
         <v>1524</v>
@@ -19618,7 +19616,7 @@
       </c>
       <c r="B596">
         <f t="shared" si="27"/>
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C596" t="str">
         <f t="shared" si="28"/>
@@ -19629,7 +19627,7 @@
       </c>
       <c r="E596">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F596" t="s">
         <v>1525</v>
@@ -19641,7 +19639,7 @@
       </c>
       <c r="B597">
         <f t="shared" si="27"/>
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C597" t="str">
         <f t="shared" si="28"/>
@@ -19652,7 +19650,7 @@
       </c>
       <c r="E597">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F597" t="s">
         <v>1526</v>
@@ -19664,7 +19662,7 @@
       </c>
       <c r="B598">
         <f t="shared" si="27"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C598" t="str">
         <f t="shared" si="28"/>
@@ -19675,7 +19673,7 @@
       </c>
       <c r="E598">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F598" t="s">
         <v>1527</v>
@@ -19687,7 +19685,7 @@
       </c>
       <c r="B599">
         <f t="shared" si="27"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C599" t="str">
         <f t="shared" si="28"/>
@@ -19698,7 +19696,7 @@
       </c>
       <c r="E599">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F599" t="s">
         <v>1528</v>
@@ -19710,7 +19708,7 @@
       </c>
       <c r="B600">
         <f t="shared" si="27"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C600" t="str">
         <f t="shared" si="28"/>
@@ -19721,7 +19719,7 @@
       </c>
       <c r="E600">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F600" t="s">
         <v>1529</v>
@@ -19733,7 +19731,7 @@
       </c>
       <c r="B601">
         <f t="shared" si="27"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C601" t="str">
         <f t="shared" si="28"/>
@@ -19744,7 +19742,7 @@
       </c>
       <c r="E601">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F601" t="s">
         <v>1530</v>
@@ -19756,7 +19754,7 @@
       </c>
       <c r="B602">
         <f t="shared" si="27"/>
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C602" t="str">
         <f t="shared" si="28"/>
@@ -19767,7 +19765,7 @@
       </c>
       <c r="E602">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F602" t="s">
         <v>1531</v>
@@ -19779,7 +19777,7 @@
       </c>
       <c r="B603">
         <f t="shared" si="27"/>
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C603" t="str">
         <f t="shared" si="28"/>
@@ -19790,7 +19788,7 @@
       </c>
       <c r="E603">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F603" t="s">
         <v>1532</v>
@@ -19802,7 +19800,7 @@
       </c>
       <c r="B604">
         <f t="shared" si="27"/>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C604" t="str">
         <f t="shared" si="28"/>
@@ -19813,7 +19811,7 @@
       </c>
       <c r="E604">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F604" t="s">
         <v>1533</v>
@@ -19825,7 +19823,7 @@
       </c>
       <c r="B605">
         <f t="shared" ref="B605:B668" si="30">IF(C604="a",B604,B604+1)</f>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C605" t="str">
         <f t="shared" ref="C605:C668" si="31">IF(C604="a","b","a")</f>
@@ -19836,7 +19834,7 @@
       </c>
       <c r="E605">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F605" t="s">
         <v>1534</v>
@@ -19848,7 +19846,7 @@
       </c>
       <c r="B606">
         <f t="shared" si="30"/>
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C606" t="str">
         <f t="shared" si="31"/>
@@ -19859,7 +19857,7 @@
       </c>
       <c r="E606">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F606" t="s">
         <v>1535</v>
@@ -19871,7 +19869,7 @@
       </c>
       <c r="B607">
         <f t="shared" si="30"/>
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C607" t="str">
         <f t="shared" si="31"/>
@@ -19882,7 +19880,7 @@
       </c>
       <c r="E607">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F607" t="s">
         <v>1536</v>
@@ -19894,7 +19892,7 @@
       </c>
       <c r="B608">
         <f t="shared" si="30"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C608" t="str">
         <f t="shared" si="31"/>
@@ -19905,7 +19903,7 @@
       </c>
       <c r="E608">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F608" t="s">
         <v>1537</v>
@@ -19917,7 +19915,7 @@
       </c>
       <c r="B609">
         <f t="shared" si="30"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C609" t="str">
         <f t="shared" si="31"/>
@@ -19928,7 +19926,7 @@
       </c>
       <c r="E609">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F609" t="s">
         <v>1538</v>
@@ -19940,7 +19938,7 @@
       </c>
       <c r="B610">
         <f t="shared" si="30"/>
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C610" t="str">
         <f t="shared" si="31"/>
@@ -19951,7 +19949,7 @@
       </c>
       <c r="E610">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F610" t="s">
         <v>1539</v>
@@ -19963,7 +19961,7 @@
       </c>
       <c r="B611">
         <f t="shared" si="30"/>
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C611" t="str">
         <f t="shared" si="31"/>
@@ -19974,7 +19972,7 @@
       </c>
       <c r="E611">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F611" t="s">
         <v>1540</v>
@@ -19986,7 +19984,7 @@
       </c>
       <c r="B612">
         <f t="shared" si="30"/>
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C612" t="str">
         <f t="shared" si="31"/>
@@ -19997,7 +19995,7 @@
       </c>
       <c r="E612">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F612" t="s">
         <v>1541</v>
@@ -20009,7 +20007,7 @@
       </c>
       <c r="B613">
         <f t="shared" si="30"/>
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C613" t="str">
         <f t="shared" si="31"/>
@@ -20020,7 +20018,7 @@
       </c>
       <c r="E613">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F613" t="s">
         <v>1542</v>
@@ -20032,7 +20030,7 @@
       </c>
       <c r="B614">
         <f t="shared" si="30"/>
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C614" t="str">
         <f t="shared" si="31"/>
@@ -20043,7 +20041,7 @@
       </c>
       <c r="E614">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F614" t="s">
         <v>1543</v>
@@ -20055,7 +20053,7 @@
       </c>
       <c r="B615">
         <f t="shared" si="30"/>
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C615" t="str">
         <f t="shared" si="31"/>
@@ -20066,7 +20064,7 @@
       </c>
       <c r="E615">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F615" t="s">
         <v>1544</v>
@@ -20078,7 +20076,7 @@
       </c>
       <c r="B616">
         <f t="shared" si="30"/>
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C616" t="str">
         <f t="shared" si="31"/>
@@ -20089,7 +20087,7 @@
       </c>
       <c r="E616">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F616" t="s">
         <v>1545</v>
@@ -20101,7 +20099,7 @@
       </c>
       <c r="B617">
         <f t="shared" si="30"/>
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C617" t="str">
         <f t="shared" si="31"/>
@@ -20112,7 +20110,7 @@
       </c>
       <c r="E617">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F617" t="s">
         <v>1546</v>
@@ -20124,7 +20122,7 @@
       </c>
       <c r="B618">
         <f t="shared" si="30"/>
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C618" t="str">
         <f t="shared" si="31"/>
@@ -20135,7 +20133,7 @@
       </c>
       <c r="E618">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F618" t="s">
         <v>1547</v>
@@ -20147,7 +20145,7 @@
       </c>
       <c r="B619">
         <f t="shared" si="30"/>
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C619" t="str">
         <f t="shared" si="31"/>
@@ -20158,7 +20156,7 @@
       </c>
       <c r="E619">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F619" t="s">
         <v>1548</v>
@@ -20170,7 +20168,7 @@
       </c>
       <c r="B620">
         <f t="shared" si="30"/>
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C620" t="str">
         <f t="shared" si="31"/>
@@ -20181,7 +20179,7 @@
       </c>
       <c r="E620">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F620" t="s">
         <v>1549</v>
@@ -20193,7 +20191,7 @@
       </c>
       <c r="B621">
         <f t="shared" si="30"/>
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C621" t="str">
         <f t="shared" si="31"/>
@@ -20204,7 +20202,7 @@
       </c>
       <c r="E621">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F621" t="s">
         <v>1550</v>
@@ -20216,7 +20214,7 @@
       </c>
       <c r="B622">
         <f t="shared" si="30"/>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C622" t="str">
         <f t="shared" si="31"/>
@@ -20227,7 +20225,7 @@
       </c>
       <c r="E622">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F622" t="s">
         <v>1551</v>
@@ -20239,7 +20237,7 @@
       </c>
       <c r="B623">
         <f t="shared" si="30"/>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C623" t="str">
         <f t="shared" si="31"/>
@@ -20250,7 +20248,7 @@
       </c>
       <c r="E623">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F623" t="s">
         <v>1552</v>
@@ -20262,7 +20260,7 @@
       </c>
       <c r="B624">
         <f t="shared" si="30"/>
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C624" t="str">
         <f t="shared" si="31"/>
@@ -20273,7 +20271,7 @@
       </c>
       <c r="E624">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F624" t="s">
         <v>1553</v>
@@ -20285,7 +20283,7 @@
       </c>
       <c r="B625">
         <f t="shared" si="30"/>
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C625" t="str">
         <f t="shared" si="31"/>
@@ -20296,7 +20294,7 @@
       </c>
       <c r="E625">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F625" t="s">
         <v>1554</v>
@@ -20308,7 +20306,7 @@
       </c>
       <c r="B626">
         <f t="shared" si="30"/>
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C626" t="str">
         <f t="shared" si="31"/>
@@ -20319,7 +20317,7 @@
       </c>
       <c r="E626">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F626" t="s">
         <v>1555</v>
@@ -20331,7 +20329,7 @@
       </c>
       <c r="B627">
         <f t="shared" si="30"/>
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C627" t="str">
         <f t="shared" si="31"/>
@@ -20342,7 +20340,7 @@
       </c>
       <c r="E627">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F627" t="s">
         <v>1556</v>
@@ -20354,7 +20352,7 @@
       </c>
       <c r="B628">
         <f t="shared" si="30"/>
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C628" t="str">
         <f t="shared" si="31"/>
@@ -20365,7 +20363,7 @@
       </c>
       <c r="E628">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F628" t="s">
         <v>1557</v>
@@ -20377,7 +20375,7 @@
       </c>
       <c r="B629">
         <f t="shared" si="30"/>
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C629" t="str">
         <f t="shared" si="31"/>
@@ -20388,7 +20386,7 @@
       </c>
       <c r="E629">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F629" t="s">
         <v>1558</v>
@@ -20400,7 +20398,7 @@
       </c>
       <c r="B630">
         <f t="shared" si="30"/>
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C630" t="str">
         <f t="shared" si="31"/>
@@ -20411,7 +20409,7 @@
       </c>
       <c r="E630">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F630" t="s">
         <v>1559</v>
@@ -20423,7 +20421,7 @@
       </c>
       <c r="B631">
         <f t="shared" si="30"/>
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C631" t="str">
         <f t="shared" si="31"/>
@@ -20434,7 +20432,7 @@
       </c>
       <c r="E631">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F631" t="s">
         <v>1560</v>
@@ -20446,7 +20444,7 @@
       </c>
       <c r="B632">
         <f t="shared" si="30"/>
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C632" t="str">
         <f t="shared" si="31"/>
@@ -20457,7 +20455,7 @@
       </c>
       <c r="E632">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F632" t="s">
         <v>1561</v>
@@ -20469,7 +20467,7 @@
       </c>
       <c r="B633">
         <f t="shared" si="30"/>
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C633" t="str">
         <f t="shared" si="31"/>
@@ -20480,7 +20478,7 @@
       </c>
       <c r="E633">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F633" t="s">
         <v>1562</v>
@@ -20492,7 +20490,7 @@
       </c>
       <c r="B634">
         <f t="shared" si="30"/>
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C634" t="str">
         <f t="shared" si="31"/>
@@ -20503,7 +20501,7 @@
       </c>
       <c r="E634">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F634" t="s">
         <v>1563</v>
@@ -20515,7 +20513,7 @@
       </c>
       <c r="B635">
         <f t="shared" si="30"/>
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C635" t="str">
         <f t="shared" si="31"/>
@@ -20526,7 +20524,7 @@
       </c>
       <c r="E635">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F635" t="s">
         <v>1564</v>
@@ -20538,7 +20536,7 @@
       </c>
       <c r="B636">
         <f t="shared" si="30"/>
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C636" t="str">
         <f t="shared" si="31"/>
@@ -20549,7 +20547,7 @@
       </c>
       <c r="E636">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F636" t="s">
         <v>1565</v>
@@ -20561,7 +20559,7 @@
       </c>
       <c r="B637">
         <f t="shared" si="30"/>
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C637" t="str">
         <f t="shared" si="31"/>
@@ -20572,7 +20570,7 @@
       </c>
       <c r="E637">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F637" t="s">
         <v>1566</v>
@@ -20584,7 +20582,7 @@
       </c>
       <c r="B638">
         <f t="shared" si="30"/>
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C638" t="str">
         <f t="shared" si="31"/>
@@ -20595,7 +20593,7 @@
       </c>
       <c r="E638">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F638" t="s">
         <v>1567</v>
@@ -20607,7 +20605,7 @@
       </c>
       <c r="B639">
         <f t="shared" si="30"/>
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C639" t="str">
         <f t="shared" si="31"/>
@@ -20618,7 +20616,7 @@
       </c>
       <c r="E639">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F639" t="s">
         <v>1568</v>
@@ -20630,7 +20628,7 @@
       </c>
       <c r="B640">
         <f t="shared" si="30"/>
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C640" t="str">
         <f t="shared" si="31"/>
@@ -20641,7 +20639,7 @@
       </c>
       <c r="E640">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F640" t="s">
         <v>1569</v>
@@ -20653,7 +20651,7 @@
       </c>
       <c r="B641">
         <f t="shared" si="30"/>
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C641" t="str">
         <f t="shared" si="31"/>
@@ -20664,7 +20662,7 @@
       </c>
       <c r="E641">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F641" t="s">
         <v>1570</v>
@@ -20676,7 +20674,7 @@
       </c>
       <c r="B642">
         <f t="shared" si="30"/>
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C642" t="str">
         <f t="shared" si="31"/>
@@ -20687,7 +20685,7 @@
       </c>
       <c r="E642">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F642" t="s">
         <v>1571</v>
@@ -20699,7 +20697,7 @@
       </c>
       <c r="B643">
         <f t="shared" si="30"/>
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C643" t="str">
         <f t="shared" si="31"/>
@@ -20710,7 +20708,7 @@
       </c>
       <c r="E643">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F643" t="s">
         <v>1572</v>
@@ -20722,7 +20720,7 @@
       </c>
       <c r="B644">
         <f t="shared" si="30"/>
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C644" t="str">
         <f t="shared" si="31"/>
@@ -20733,7 +20731,7 @@
       </c>
       <c r="E644">
         <f t="shared" ref="E644:E707" si="32">E643</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F644" t="s">
         <v>1573</v>
@@ -20745,7 +20743,7 @@
       </c>
       <c r="B645">
         <f t="shared" si="30"/>
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C645" t="str">
         <f t="shared" si="31"/>
@@ -20756,7 +20754,7 @@
       </c>
       <c r="E645">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F645" t="s">
         <v>1574</v>
@@ -20768,7 +20766,7 @@
       </c>
       <c r="B646">
         <f t="shared" si="30"/>
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C646" t="str">
         <f t="shared" si="31"/>
@@ -20779,7 +20777,7 @@
       </c>
       <c r="E646">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F646" t="s">
         <v>1575</v>
@@ -20791,7 +20789,7 @@
       </c>
       <c r="B647">
         <f t="shared" si="30"/>
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C647" t="str">
         <f t="shared" si="31"/>
@@ -20802,7 +20800,7 @@
       </c>
       <c r="E647">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F647" t="s">
         <v>1576</v>
@@ -20814,7 +20812,7 @@
       </c>
       <c r="B648">
         <f t="shared" si="30"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C648" t="str">
         <f t="shared" si="31"/>
@@ -20825,7 +20823,7 @@
       </c>
       <c r="E648">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F648" t="s">
         <v>1577</v>
@@ -20837,7 +20835,7 @@
       </c>
       <c r="B649">
         <f t="shared" si="30"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C649" t="str">
         <f t="shared" si="31"/>
@@ -20848,7 +20846,7 @@
       </c>
       <c r="E649">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F649" t="s">
         <v>1578</v>
@@ -20860,7 +20858,7 @@
       </c>
       <c r="B650">
         <f t="shared" si="30"/>
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C650" t="str">
         <f t="shared" si="31"/>
@@ -20871,7 +20869,7 @@
       </c>
       <c r="E650">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F650" t="s">
         <v>1579</v>
@@ -20883,7 +20881,7 @@
       </c>
       <c r="B651">
         <f t="shared" si="30"/>
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C651" t="str">
         <f t="shared" si="31"/>
@@ -20894,7 +20892,7 @@
       </c>
       <c r="E651">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F651" t="s">
         <v>1580</v>
@@ -20906,7 +20904,7 @@
       </c>
       <c r="B652">
         <f t="shared" si="30"/>
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C652" t="str">
         <f t="shared" si="31"/>
@@ -20917,7 +20915,7 @@
       </c>
       <c r="E652">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F652" t="s">
         <v>1581</v>
@@ -20929,7 +20927,7 @@
       </c>
       <c r="B653">
         <f t="shared" si="30"/>
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C653" t="str">
         <f t="shared" si="31"/>
@@ -20940,7 +20938,7 @@
       </c>
       <c r="E653">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F653" t="s">
         <v>1582</v>
@@ -20952,7 +20950,7 @@
       </c>
       <c r="B654">
         <f t="shared" si="30"/>
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C654" t="str">
         <f t="shared" si="31"/>
@@ -20963,7 +20961,7 @@
       </c>
       <c r="E654">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F654" t="s">
         <v>1583</v>
@@ -20975,7 +20973,7 @@
       </c>
       <c r="B655">
         <f t="shared" si="30"/>
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C655" t="str">
         <f t="shared" si="31"/>
@@ -20986,7 +20984,7 @@
       </c>
       <c r="E655">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F655" t="s">
         <v>1584</v>
@@ -20998,7 +20996,7 @@
       </c>
       <c r="B656">
         <f t="shared" si="30"/>
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C656" t="str">
         <f t="shared" si="31"/>
@@ -21009,7 +21007,7 @@
       </c>
       <c r="E656">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F656" t="s">
         <v>1585</v>
@@ -21021,7 +21019,7 @@
       </c>
       <c r="B657">
         <f t="shared" si="30"/>
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C657" t="str">
         <f t="shared" si="31"/>
@@ -21032,7 +21030,7 @@
       </c>
       <c r="E657">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F657" t="s">
         <v>1586</v>
@@ -21044,7 +21042,7 @@
       </c>
       <c r="B658">
         <f t="shared" si="30"/>
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C658" t="str">
         <f t="shared" si="31"/>
@@ -21055,7 +21053,7 @@
       </c>
       <c r="E658">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F658" t="s">
         <v>1587</v>
@@ -21067,7 +21065,7 @@
       </c>
       <c r="B659">
         <f t="shared" si="30"/>
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C659" t="str">
         <f t="shared" si="31"/>
@@ -21078,7 +21076,7 @@
       </c>
       <c r="E659">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F659" t="s">
         <v>1588</v>
@@ -21090,7 +21088,7 @@
       </c>
       <c r="B660">
         <f t="shared" si="30"/>
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C660" t="str">
         <f t="shared" si="31"/>
@@ -21101,7 +21099,7 @@
       </c>
       <c r="E660">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F660" t="s">
         <v>1589</v>
@@ -21113,7 +21111,7 @@
       </c>
       <c r="B661">
         <f t="shared" si="30"/>
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C661" t="str">
         <f t="shared" si="31"/>
@@ -21124,7 +21122,7 @@
       </c>
       <c r="E661">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F661" t="s">
         <v>1590</v>
@@ -21136,7 +21134,7 @@
       </c>
       <c r="B662">
         <f t="shared" si="30"/>
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C662" t="str">
         <f t="shared" si="31"/>
@@ -21147,7 +21145,7 @@
       </c>
       <c r="E662">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F662" t="s">
         <v>1591</v>
@@ -21159,7 +21157,7 @@
       </c>
       <c r="B663">
         <f t="shared" si="30"/>
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C663" t="str">
         <f t="shared" si="31"/>
@@ -21170,7 +21168,7 @@
       </c>
       <c r="E663">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F663" t="s">
         <v>1592</v>
@@ -21182,7 +21180,7 @@
       </c>
       <c r="B664">
         <f t="shared" si="30"/>
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C664" t="str">
         <f t="shared" si="31"/>
@@ -21193,7 +21191,7 @@
       </c>
       <c r="E664">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F664" t="s">
         <v>1593</v>
@@ -21205,7 +21203,7 @@
       </c>
       <c r="B665">
         <f t="shared" si="30"/>
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C665" t="str">
         <f t="shared" si="31"/>
@@ -21216,7 +21214,7 @@
       </c>
       <c r="E665">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F665" t="s">
         <v>1594</v>
@@ -21228,7 +21226,7 @@
       </c>
       <c r="B666">
         <f t="shared" si="30"/>
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C666" t="str">
         <f t="shared" si="31"/>
@@ -21239,7 +21237,7 @@
       </c>
       <c r="E666">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F666" t="s">
         <v>1595</v>
@@ -21251,7 +21249,7 @@
       </c>
       <c r="B667">
         <f t="shared" si="30"/>
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C667" t="str">
         <f t="shared" si="31"/>
@@ -21262,7 +21260,7 @@
       </c>
       <c r="E667">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F667" t="s">
         <v>1596</v>
@@ -21274,7 +21272,7 @@
       </c>
       <c r="B668">
         <f t="shared" si="30"/>
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C668" t="str">
         <f t="shared" si="31"/>
@@ -21285,7 +21283,7 @@
       </c>
       <c r="E668">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F668" t="s">
         <v>1597</v>
@@ -21297,7 +21295,7 @@
       </c>
       <c r="B669">
         <f t="shared" ref="B669:B732" si="33">IF(C668="a",B668,B668+1)</f>
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C669" t="str">
         <f t="shared" ref="C669:C732" si="34">IF(C668="a","b","a")</f>
@@ -21308,7 +21306,7 @@
       </c>
       <c r="E669">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F669" t="s">
         <v>1598</v>
@@ -21320,7 +21318,7 @@
       </c>
       <c r="B670">
         <f t="shared" si="33"/>
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C670" t="str">
         <f t="shared" si="34"/>
@@ -21331,7 +21329,7 @@
       </c>
       <c r="E670">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F670" t="s">
         <v>1599</v>
@@ -21343,7 +21341,7 @@
       </c>
       <c r="B671">
         <f t="shared" si="33"/>
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C671" t="str">
         <f t="shared" si="34"/>
@@ -21354,7 +21352,7 @@
       </c>
       <c r="E671">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F671" t="s">
         <v>1600</v>
@@ -21366,7 +21364,7 @@
       </c>
       <c r="B672">
         <f t="shared" si="33"/>
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C672" t="str">
         <f t="shared" si="34"/>
@@ -21377,7 +21375,7 @@
       </c>
       <c r="E672">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F672" t="s">
         <v>1601</v>
@@ -21389,7 +21387,7 @@
       </c>
       <c r="B673">
         <f t="shared" si="33"/>
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C673" t="str">
         <f t="shared" si="34"/>
@@ -21400,7 +21398,7 @@
       </c>
       <c r="E673">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F673" t="s">
         <v>1602</v>
@@ -21412,7 +21410,7 @@
       </c>
       <c r="B674">
         <f t="shared" si="33"/>
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C674" t="str">
         <f t="shared" si="34"/>
@@ -21423,7 +21421,7 @@
       </c>
       <c r="E674">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F674" t="s">
         <v>1603</v>
@@ -21435,7 +21433,7 @@
       </c>
       <c r="B675">
         <f t="shared" si="33"/>
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C675" t="str">
         <f t="shared" si="34"/>
@@ -21446,7 +21444,7 @@
       </c>
       <c r="E675">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F675" t="s">
         <v>1604</v>
@@ -21458,7 +21456,7 @@
       </c>
       <c r="B676">
         <f t="shared" si="33"/>
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C676" t="str">
         <f t="shared" si="34"/>
@@ -21469,7 +21467,7 @@
       </c>
       <c r="E676">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F676" t="s">
         <v>1605</v>
@@ -21481,7 +21479,7 @@
       </c>
       <c r="B677">
         <f t="shared" si="33"/>
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C677" t="str">
         <f t="shared" si="34"/>
@@ -21492,7 +21490,7 @@
       </c>
       <c r="E677">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F677" t="s">
         <v>1606</v>
@@ -21504,7 +21502,7 @@
       </c>
       <c r="B678">
         <f t="shared" si="33"/>
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C678" t="str">
         <f t="shared" si="34"/>
@@ -21515,7 +21513,7 @@
       </c>
       <c r="E678">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F678" t="s">
         <v>1607</v>
@@ -21527,7 +21525,7 @@
       </c>
       <c r="B679">
         <f t="shared" si="33"/>
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C679" t="str">
         <f t="shared" si="34"/>
@@ -21538,7 +21536,7 @@
       </c>
       <c r="E679">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F679" t="s">
         <v>1608</v>
@@ -21550,7 +21548,7 @@
       </c>
       <c r="B680">
         <f t="shared" si="33"/>
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C680" t="str">
         <f t="shared" si="34"/>
@@ -21561,7 +21559,7 @@
       </c>
       <c r="E680">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F680" t="s">
         <v>1609</v>
@@ -21573,7 +21571,7 @@
       </c>
       <c r="B681">
         <f t="shared" si="33"/>
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C681" t="str">
         <f t="shared" si="34"/>
@@ -21584,7 +21582,7 @@
       </c>
       <c r="E681">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F681" t="s">
         <v>1610</v>
@@ -21596,7 +21594,7 @@
       </c>
       <c r="B682">
         <f t="shared" si="33"/>
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C682" t="str">
         <f t="shared" si="34"/>
@@ -21607,7 +21605,7 @@
       </c>
       <c r="E682">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F682" t="s">
         <v>1611</v>
@@ -21619,7 +21617,7 @@
       </c>
       <c r="B683">
         <f t="shared" si="33"/>
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C683" t="str">
         <f t="shared" si="34"/>
@@ -21630,7 +21628,7 @@
       </c>
       <c r="E683">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F683" t="s">
         <v>1612</v>
@@ -21642,7 +21640,7 @@
       </c>
       <c r="B684">
         <f t="shared" si="33"/>
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C684" t="str">
         <f t="shared" si="34"/>
@@ -21653,7 +21651,7 @@
       </c>
       <c r="E684">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F684" t="s">
         <v>1613</v>
@@ -21665,7 +21663,7 @@
       </c>
       <c r="B685">
         <f t="shared" si="33"/>
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C685" t="str">
         <f t="shared" si="34"/>
@@ -21676,7 +21674,7 @@
       </c>
       <c r="E685">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F685" t="s">
         <v>1614</v>
@@ -21688,7 +21686,7 @@
       </c>
       <c r="B686">
         <f t="shared" si="33"/>
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C686" t="str">
         <f t="shared" si="34"/>
@@ -21699,7 +21697,7 @@
       </c>
       <c r="E686">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F686" t="s">
         <v>1615</v>
@@ -21711,7 +21709,7 @@
       </c>
       <c r="B687">
         <f t="shared" si="33"/>
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C687" t="str">
         <f t="shared" si="34"/>
@@ -21722,7 +21720,7 @@
       </c>
       <c r="E687">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F687" t="s">
         <v>1616</v>
@@ -21733,8 +21731,7 @@
         <v>687</v>
       </c>
       <c r="B688">
-        <f t="shared" si="33"/>
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C688" t="str">
         <f t="shared" si="34"/>
@@ -21744,8 +21741,7 @@
         <v>930</v>
       </c>
       <c r="E688">
-        <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F688" t="s">
         <v>1617</v>
@@ -21757,7 +21753,7 @@
       </c>
       <c r="B689">
         <f t="shared" si="33"/>
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C689" t="str">
         <f t="shared" si="34"/>
@@ -21768,7 +21764,7 @@
       </c>
       <c r="E689">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F689" t="s">
         <v>1618</v>
@@ -21780,7 +21776,7 @@
       </c>
       <c r="B690">
         <f t="shared" si="33"/>
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="C690" t="str">
         <f t="shared" si="34"/>
@@ -21791,7 +21787,7 @@
       </c>
       <c r="E690">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F690" t="s">
         <v>1619</v>
@@ -21803,7 +21799,7 @@
       </c>
       <c r="B691">
         <f t="shared" si="33"/>
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="C691" t="str">
         <f t="shared" si="34"/>
@@ -21814,7 +21810,7 @@
       </c>
       <c r="E691">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F691" t="s">
         <v>1620</v>
@@ -21826,7 +21822,7 @@
       </c>
       <c r="B692">
         <f t="shared" si="33"/>
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="C692" t="str">
         <f t="shared" si="34"/>
@@ -21837,7 +21833,7 @@
       </c>
       <c r="E692">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F692" t="s">
         <v>1621</v>
@@ -21849,7 +21845,7 @@
       </c>
       <c r="B693">
         <f t="shared" si="33"/>
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="C693" t="str">
         <f t="shared" si="34"/>
@@ -21860,7 +21856,7 @@
       </c>
       <c r="E693">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F693" t="s">
         <v>1622</v>
@@ -21872,7 +21868,7 @@
       </c>
       <c r="B694">
         <f t="shared" si="33"/>
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="C694" t="str">
         <f t="shared" si="34"/>
@@ -21883,7 +21879,7 @@
       </c>
       <c r="E694">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F694" t="s">
         <v>1623</v>
@@ -21895,7 +21891,7 @@
       </c>
       <c r="B695">
         <f t="shared" si="33"/>
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="C695" t="str">
         <f t="shared" si="34"/>
@@ -21906,7 +21902,7 @@
       </c>
       <c r="E695">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F695" t="s">
         <v>1624</v>
@@ -21918,7 +21914,7 @@
       </c>
       <c r="B696">
         <f t="shared" si="33"/>
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="C696" t="str">
         <f t="shared" si="34"/>
@@ -21929,7 +21925,7 @@
       </c>
       <c r="E696">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F696" t="s">
         <v>1625</v>
@@ -21941,7 +21937,7 @@
       </c>
       <c r="B697">
         <f t="shared" si="33"/>
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="C697" t="str">
         <f t="shared" si="34"/>
@@ -21952,7 +21948,7 @@
       </c>
       <c r="E697">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F697" t="s">
         <v>1626</v>
@@ -21964,7 +21960,7 @@
       </c>
       <c r="B698">
         <f t="shared" si="33"/>
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="C698" t="str">
         <f t="shared" si="34"/>
@@ -21975,7 +21971,7 @@
       </c>
       <c r="E698">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F698" t="s">
         <v>1627</v>
@@ -21987,7 +21983,7 @@
       </c>
       <c r="B699">
         <f t="shared" si="33"/>
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="C699" t="str">
         <f t="shared" si="34"/>
@@ -21998,7 +21994,7 @@
       </c>
       <c r="E699">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F699" t="s">
         <v>1628</v>
@@ -22010,7 +22006,7 @@
       </c>
       <c r="B700">
         <f t="shared" si="33"/>
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="C700" t="str">
         <f t="shared" si="34"/>
@@ -22021,7 +22017,7 @@
       </c>
       <c r="E700">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F700" t="s">
         <v>1629</v>
@@ -22033,7 +22029,7 @@
       </c>
       <c r="B701">
         <f t="shared" si="33"/>
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="C701" t="str">
         <f t="shared" si="34"/>
@@ -22044,7 +22040,7 @@
       </c>
       <c r="E701">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F701" t="s">
         <v>1630</v>
@@ -22056,7 +22052,7 @@
       </c>
       <c r="B702">
         <f t="shared" si="33"/>
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="C702" t="str">
         <f t="shared" si="34"/>
@@ -22067,7 +22063,7 @@
       </c>
       <c r="E702">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F702" t="s">
         <v>1631</v>
@@ -22079,7 +22075,7 @@
       </c>
       <c r="B703">
         <f t="shared" si="33"/>
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="C703" t="str">
         <f t="shared" si="34"/>
@@ -22090,7 +22086,7 @@
       </c>
       <c r="E703">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F703" t="s">
         <v>1632</v>
@@ -22102,7 +22098,7 @@
       </c>
       <c r="B704">
         <f t="shared" si="33"/>
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="C704" t="str">
         <f t="shared" si="34"/>
@@ -22113,7 +22109,7 @@
       </c>
       <c r="E704">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F704" t="s">
         <v>1633</v>
@@ -22125,7 +22121,7 @@
       </c>
       <c r="B705">
         <f t="shared" si="33"/>
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="C705" t="str">
         <f t="shared" si="34"/>
@@ -22136,7 +22132,7 @@
       </c>
       <c r="E705">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F705" t="s">
         <v>1634</v>
@@ -22148,7 +22144,7 @@
       </c>
       <c r="B706">
         <f t="shared" si="33"/>
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="C706" t="str">
         <f t="shared" si="34"/>
@@ -22159,7 +22155,7 @@
       </c>
       <c r="E706">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F706" t="s">
         <v>1635</v>
@@ -22171,7 +22167,7 @@
       </c>
       <c r="B707">
         <f t="shared" si="33"/>
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="C707" t="str">
         <f t="shared" si="34"/>
@@ -22182,7 +22178,7 @@
       </c>
       <c r="E707">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F707" t="s">
         <v>1636</v>
@@ -22194,7 +22190,7 @@
       </c>
       <c r="B708">
         <f t="shared" si="33"/>
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="C708" t="str">
         <f t="shared" si="34"/>
@@ -22205,7 +22201,7 @@
       </c>
       <c r="E708">
         <f t="shared" ref="E708:E771" si="35">E707</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F708" t="s">
         <v>1637</v>
@@ -22217,7 +22213,7 @@
       </c>
       <c r="B709">
         <f t="shared" si="33"/>
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="C709" t="str">
         <f t="shared" si="34"/>
@@ -22228,7 +22224,7 @@
       </c>
       <c r="E709">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F709" t="s">
         <v>1638</v>
@@ -22240,7 +22236,7 @@
       </c>
       <c r="B710">
         <f t="shared" si="33"/>
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="C710" t="str">
         <f t="shared" si="34"/>
@@ -22251,7 +22247,7 @@
       </c>
       <c r="E710">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F710" t="s">
         <v>1639</v>
@@ -22263,7 +22259,7 @@
       </c>
       <c r="B711">
         <f t="shared" si="33"/>
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="C711" t="str">
         <f t="shared" si="34"/>
@@ -22274,7 +22270,7 @@
       </c>
       <c r="E711">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F711" t="s">
         <v>1640</v>
@@ -22286,7 +22282,7 @@
       </c>
       <c r="B712">
         <f t="shared" si="33"/>
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="C712" t="str">
         <f t="shared" si="34"/>
@@ -22297,7 +22293,7 @@
       </c>
       <c r="E712">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F712" t="s">
         <v>1641</v>
@@ -22309,7 +22305,7 @@
       </c>
       <c r="B713">
         <f t="shared" si="33"/>
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="C713" t="str">
         <f t="shared" si="34"/>
@@ -22320,7 +22316,7 @@
       </c>
       <c r="E713">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F713" t="s">
         <v>1642</v>
@@ -22332,7 +22328,7 @@
       </c>
       <c r="B714">
         <f t="shared" si="33"/>
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="C714" t="str">
         <f t="shared" si="34"/>
@@ -22343,7 +22339,7 @@
       </c>
       <c r="E714">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F714" t="s">
         <v>1643</v>
@@ -22355,7 +22351,7 @@
       </c>
       <c r="B715">
         <f t="shared" si="33"/>
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="C715" t="str">
         <f t="shared" si="34"/>
@@ -22366,7 +22362,7 @@
       </c>
       <c r="E715">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F715" t="s">
         <v>1644</v>
@@ -22378,7 +22374,7 @@
       </c>
       <c r="B716">
         <f t="shared" si="33"/>
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="C716" t="str">
         <f t="shared" si="34"/>
@@ -22389,7 +22385,7 @@
       </c>
       <c r="E716">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F716" t="s">
         <v>1645</v>
@@ -22401,7 +22397,7 @@
       </c>
       <c r="B717">
         <f t="shared" si="33"/>
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="C717" t="str">
         <f t="shared" si="34"/>
@@ -22412,7 +22408,7 @@
       </c>
       <c r="E717">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F717" t="s">
         <v>1646</v>
@@ -22424,7 +22420,7 @@
       </c>
       <c r="B718">
         <f t="shared" si="33"/>
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="C718" t="str">
         <f t="shared" si="34"/>
@@ -22435,7 +22431,7 @@
       </c>
       <c r="E718">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F718" t="s">
         <v>1647</v>
@@ -22447,7 +22443,7 @@
       </c>
       <c r="B719">
         <f t="shared" si="33"/>
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="C719" t="str">
         <f t="shared" si="34"/>
@@ -22458,7 +22454,7 @@
       </c>
       <c r="E719">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F719" t="s">
         <v>1648</v>
@@ -22470,7 +22466,7 @@
       </c>
       <c r="B720">
         <f t="shared" si="33"/>
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="C720" t="str">
         <f t="shared" si="34"/>
@@ -22481,7 +22477,7 @@
       </c>
       <c r="E720">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F720" t="s">
         <v>1649</v>
@@ -22493,7 +22489,7 @@
       </c>
       <c r="B721">
         <f t="shared" si="33"/>
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="C721" t="str">
         <f t="shared" si="34"/>
@@ -22504,7 +22500,7 @@
       </c>
       <c r="E721">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F721" t="s">
         <v>1650</v>
@@ -22516,7 +22512,7 @@
       </c>
       <c r="B722">
         <f t="shared" si="33"/>
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="C722" t="str">
         <f t="shared" si="34"/>
@@ -22527,7 +22523,7 @@
       </c>
       <c r="E722">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F722" t="s">
         <v>1651</v>
@@ -22539,7 +22535,7 @@
       </c>
       <c r="B723">
         <f t="shared" si="33"/>
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="C723" t="str">
         <f t="shared" si="34"/>
@@ -22550,7 +22546,7 @@
       </c>
       <c r="E723">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F723" t="s">
         <v>1652</v>
@@ -22561,8 +22557,7 @@
         <v>723</v>
       </c>
       <c r="B724">
-        <f t="shared" si="33"/>
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="C724" t="str">
         <f t="shared" si="34"/>
@@ -22572,8 +22567,7 @@
         <v>930</v>
       </c>
       <c r="E724">
-        <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F724" t="s">
         <v>1653</v>
@@ -22585,7 +22579,7 @@
       </c>
       <c r="B725">
         <f t="shared" si="33"/>
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="C725" t="str">
         <f t="shared" si="34"/>
@@ -22596,7 +22590,7 @@
       </c>
       <c r="E725">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F725" t="s">
         <v>1654</v>
@@ -22608,7 +22602,7 @@
       </c>
       <c r="B726">
         <f t="shared" si="33"/>
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="C726" t="str">
         <f t="shared" si="34"/>
@@ -22619,7 +22613,7 @@
       </c>
       <c r="E726">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F726" t="s">
         <v>1655</v>
@@ -22631,7 +22625,7 @@
       </c>
       <c r="B727">
         <f t="shared" si="33"/>
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="C727" t="str">
         <f t="shared" si="34"/>
@@ -22642,7 +22636,7 @@
       </c>
       <c r="E727">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F727" t="s">
         <v>1656</v>
@@ -22654,7 +22648,7 @@
       </c>
       <c r="B728">
         <f t="shared" si="33"/>
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="C728" t="str">
         <f t="shared" si="34"/>
@@ -22665,7 +22659,7 @@
       </c>
       <c r="E728">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F728" t="s">
         <v>1657</v>
@@ -22677,7 +22671,7 @@
       </c>
       <c r="B729">
         <f t="shared" si="33"/>
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="C729" t="str">
         <f t="shared" si="34"/>
@@ -22688,7 +22682,7 @@
       </c>
       <c r="E729">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F729" t="s">
         <v>1658</v>
@@ -22700,7 +22694,7 @@
       </c>
       <c r="B730">
         <f t="shared" si="33"/>
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="C730" t="str">
         <f t="shared" si="34"/>
@@ -22711,7 +22705,7 @@
       </c>
       <c r="E730">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F730" t="s">
         <v>1659</v>
@@ -22723,7 +22717,7 @@
       </c>
       <c r="B731">
         <f t="shared" si="33"/>
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="C731" t="str">
         <f t="shared" si="34"/>
@@ -22734,7 +22728,7 @@
       </c>
       <c r="E731">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F731" t="s">
         <v>1660</v>
@@ -22746,7 +22740,7 @@
       </c>
       <c r="B732">
         <f t="shared" si="33"/>
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="C732" t="str">
         <f t="shared" si="34"/>
@@ -22757,7 +22751,7 @@
       </c>
       <c r="E732">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F732" t="s">
         <v>1661</v>
@@ -22769,7 +22763,7 @@
       </c>
       <c r="B733">
         <f t="shared" ref="B733:B796" si="36">IF(C732="a",B732,B732+1)</f>
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="C733" t="str">
         <f t="shared" ref="C733:C796" si="37">IF(C732="a","b","a")</f>
@@ -22780,7 +22774,7 @@
       </c>
       <c r="E733">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F733" t="s">
         <v>1662</v>
@@ -22792,7 +22786,7 @@
       </c>
       <c r="B734">
         <f t="shared" si="36"/>
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="C734" t="str">
         <f t="shared" si="37"/>
@@ -22803,7 +22797,7 @@
       </c>
       <c r="E734">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F734" t="s">
         <v>1663</v>
@@ -22815,7 +22809,7 @@
       </c>
       <c r="B735">
         <f t="shared" si="36"/>
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="C735" t="str">
         <f t="shared" si="37"/>
@@ -22826,7 +22820,7 @@
       </c>
       <c r="E735">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F735" t="s">
         <v>1664</v>
@@ -22838,7 +22832,7 @@
       </c>
       <c r="B736">
         <f t="shared" si="36"/>
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="C736" t="str">
         <f t="shared" si="37"/>
@@ -22849,7 +22843,7 @@
       </c>
       <c r="E736">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F736" t="s">
         <v>1665</v>
@@ -22861,7 +22855,7 @@
       </c>
       <c r="B737">
         <f t="shared" si="36"/>
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="C737" t="str">
         <f t="shared" si="37"/>
@@ -22872,7 +22866,7 @@
       </c>
       <c r="E737">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F737" t="s">
         <v>1666</v>
@@ -22884,7 +22878,7 @@
       </c>
       <c r="B738">
         <f t="shared" si="36"/>
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="C738" t="str">
         <f t="shared" si="37"/>
@@ -22895,7 +22889,7 @@
       </c>
       <c r="E738">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F738" t="s">
         <v>1667</v>
@@ -22907,7 +22901,7 @@
       </c>
       <c r="B739">
         <f t="shared" si="36"/>
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="C739" t="str">
         <f t="shared" si="37"/>
@@ -22918,7 +22912,7 @@
       </c>
       <c r="E739">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F739" t="s">
         <v>1668</v>
@@ -22930,7 +22924,7 @@
       </c>
       <c r="B740">
         <f t="shared" si="36"/>
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="C740" t="str">
         <f t="shared" si="37"/>
@@ -22941,7 +22935,7 @@
       </c>
       <c r="E740">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F740" t="s">
         <v>1669</v>
@@ -22953,7 +22947,7 @@
       </c>
       <c r="B741">
         <f t="shared" si="36"/>
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="C741" t="str">
         <f t="shared" si="37"/>
@@ -22964,7 +22958,7 @@
       </c>
       <c r="E741">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F741" t="s">
         <v>1670</v>
@@ -22976,7 +22970,7 @@
       </c>
       <c r="B742">
         <f t="shared" si="36"/>
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="C742" t="str">
         <f t="shared" si="37"/>
@@ -22987,7 +22981,7 @@
       </c>
       <c r="E742">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F742" t="s">
         <v>1671</v>
@@ -22999,7 +22993,7 @@
       </c>
       <c r="B743">
         <f t="shared" si="36"/>
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="C743" t="str">
         <f t="shared" si="37"/>
@@ -23010,7 +23004,7 @@
       </c>
       <c r="E743">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F743" t="s">
         <v>1672</v>
@@ -23022,7 +23016,7 @@
       </c>
       <c r="B744">
         <f t="shared" si="36"/>
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="C744" t="str">
         <f t="shared" si="37"/>
@@ -23033,7 +23027,7 @@
       </c>
       <c r="E744">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F744" t="s">
         <v>1673</v>
@@ -23045,7 +23039,7 @@
       </c>
       <c r="B745">
         <f t="shared" si="36"/>
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="C745" t="str">
         <f t="shared" si="37"/>
@@ -23056,7 +23050,7 @@
       </c>
       <c r="E745">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F745" t="s">
         <v>1674</v>
@@ -23068,7 +23062,7 @@
       </c>
       <c r="B746">
         <f t="shared" si="36"/>
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="C746" t="str">
         <f t="shared" si="37"/>
@@ -23079,7 +23073,7 @@
       </c>
       <c r="E746">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F746" t="s">
         <v>1675</v>
@@ -23091,7 +23085,7 @@
       </c>
       <c r="B747">
         <f t="shared" si="36"/>
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="C747" t="str">
         <f t="shared" si="37"/>
@@ -23102,7 +23096,7 @@
       </c>
       <c r="E747">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F747" t="s">
         <v>1676</v>
@@ -23114,7 +23108,7 @@
       </c>
       <c r="B748">
         <f t="shared" si="36"/>
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="C748" t="str">
         <f t="shared" si="37"/>
@@ -23125,7 +23119,7 @@
       </c>
       <c r="E748">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F748" t="s">
         <v>1677</v>
@@ -23137,7 +23131,7 @@
       </c>
       <c r="B749">
         <f t="shared" si="36"/>
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="C749" t="str">
         <f t="shared" si="37"/>
@@ -23148,7 +23142,7 @@
       </c>
       <c r="E749">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F749" t="s">
         <v>1678</v>
@@ -23160,7 +23154,7 @@
       </c>
       <c r="B750">
         <f t="shared" si="36"/>
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="C750" t="str">
         <f t="shared" si="37"/>
@@ -23171,7 +23165,7 @@
       </c>
       <c r="E750">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F750" t="s">
         <v>1679</v>
@@ -23183,7 +23177,7 @@
       </c>
       <c r="B751">
         <f t="shared" si="36"/>
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="C751" t="str">
         <f t="shared" si="37"/>
@@ -23194,7 +23188,7 @@
       </c>
       <c r="E751">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F751" t="s">
         <v>1680</v>
@@ -23206,7 +23200,7 @@
       </c>
       <c r="B752">
         <f t="shared" si="36"/>
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="C752" t="str">
         <f t="shared" si="37"/>
@@ -23217,7 +23211,7 @@
       </c>
       <c r="E752">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F752" t="s">
         <v>1681</v>
@@ -23229,7 +23223,7 @@
       </c>
       <c r="B753">
         <f t="shared" si="36"/>
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="C753" t="str">
         <f t="shared" si="37"/>
@@ -23240,7 +23234,7 @@
       </c>
       <c r="E753">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F753" t="s">
         <v>1682</v>
@@ -23252,7 +23246,7 @@
       </c>
       <c r="B754">
         <f t="shared" si="36"/>
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="C754" t="str">
         <f t="shared" si="37"/>
@@ -23263,7 +23257,7 @@
       </c>
       <c r="E754">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F754" t="s">
         <v>1683</v>
@@ -23275,7 +23269,7 @@
       </c>
       <c r="B755">
         <f t="shared" si="36"/>
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="C755" t="str">
         <f t="shared" si="37"/>
@@ -23286,7 +23280,7 @@
       </c>
       <c r="E755">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F755" t="s">
         <v>1684</v>
@@ -23298,7 +23292,7 @@
       </c>
       <c r="B756">
         <f t="shared" si="36"/>
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="C756" t="str">
         <f t="shared" si="37"/>
@@ -23309,7 +23303,7 @@
       </c>
       <c r="E756">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F756" t="s">
         <v>1685</v>
@@ -23321,7 +23315,7 @@
       </c>
       <c r="B757">
         <f t="shared" si="36"/>
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="C757" t="str">
         <f t="shared" si="37"/>
@@ -23332,7 +23326,7 @@
       </c>
       <c r="E757">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F757" t="s">
         <v>1686</v>
@@ -23344,7 +23338,7 @@
       </c>
       <c r="B758">
         <f t="shared" si="36"/>
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="C758" t="str">
         <f t="shared" si="37"/>
@@ -23355,7 +23349,7 @@
       </c>
       <c r="E758">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F758" t="s">
         <v>1687</v>
@@ -23367,7 +23361,7 @@
       </c>
       <c r="B759">
         <f t="shared" si="36"/>
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="C759" t="str">
         <f t="shared" si="37"/>
@@ -23378,7 +23372,7 @@
       </c>
       <c r="E759">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F759" t="s">
         <v>1688</v>
@@ -23390,7 +23384,7 @@
       </c>
       <c r="B760">
         <f t="shared" si="36"/>
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="C760" t="str">
         <f t="shared" si="37"/>
@@ -23401,7 +23395,7 @@
       </c>
       <c r="E760">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F760" t="s">
         <v>1689</v>
@@ -23413,7 +23407,7 @@
       </c>
       <c r="B761">
         <f t="shared" si="36"/>
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="C761" t="str">
         <f t="shared" si="37"/>
@@ -23424,7 +23418,7 @@
       </c>
       <c r="E761">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F761" t="s">
         <v>1690</v>
@@ -23436,7 +23430,7 @@
       </c>
       <c r="B762">
         <f t="shared" si="36"/>
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="C762" t="str">
         <f t="shared" si="37"/>
@@ -23447,7 +23441,7 @@
       </c>
       <c r="E762">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F762" t="s">
         <v>1691</v>
@@ -23459,7 +23453,7 @@
       </c>
       <c r="B763">
         <f t="shared" si="36"/>
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="C763" t="str">
         <f t="shared" si="37"/>
@@ -23470,7 +23464,7 @@
       </c>
       <c r="E763">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F763" t="s">
         <v>1692</v>
@@ -23482,7 +23476,7 @@
       </c>
       <c r="B764">
         <f t="shared" si="36"/>
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="C764" t="str">
         <f t="shared" si="37"/>
@@ -23493,7 +23487,7 @@
       </c>
       <c r="E764">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F764" t="s">
         <v>1693</v>
@@ -23505,7 +23499,7 @@
       </c>
       <c r="B765">
         <f t="shared" si="36"/>
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="C765" t="str">
         <f t="shared" si="37"/>
@@ -23516,7 +23510,7 @@
       </c>
       <c r="E765">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F765" t="s">
         <v>1694</v>
@@ -23528,7 +23522,7 @@
       </c>
       <c r="B766">
         <f t="shared" si="36"/>
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="C766" t="str">
         <f t="shared" si="37"/>
@@ -23539,7 +23533,7 @@
       </c>
       <c r="E766">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F766" t="s">
         <v>1695</v>
@@ -23551,7 +23545,7 @@
       </c>
       <c r="B767">
         <f t="shared" si="36"/>
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="C767" t="str">
         <f t="shared" si="37"/>
@@ -23562,7 +23556,7 @@
       </c>
       <c r="E767">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F767" t="s">
         <v>1696</v>
@@ -23574,7 +23568,7 @@
       </c>
       <c r="B768">
         <f t="shared" si="36"/>
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="C768" t="str">
         <f t="shared" si="37"/>
@@ -23585,7 +23579,7 @@
       </c>
       <c r="E768">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F768" t="s">
         <v>1697</v>
@@ -23597,7 +23591,7 @@
       </c>
       <c r="B769">
         <f t="shared" si="36"/>
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="C769" t="str">
         <f t="shared" si="37"/>
@@ -23608,7 +23602,7 @@
       </c>
       <c r="E769">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F769" t="s">
         <v>1698</v>
@@ -23620,7 +23614,7 @@
       </c>
       <c r="B770">
         <f t="shared" si="36"/>
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="C770" t="str">
         <f t="shared" si="37"/>
@@ -23631,7 +23625,7 @@
       </c>
       <c r="E770">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F770" t="s">
         <v>1699</v>
@@ -23643,7 +23637,7 @@
       </c>
       <c r="B771">
         <f t="shared" si="36"/>
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="C771" t="str">
         <f t="shared" si="37"/>
@@ -23654,7 +23648,7 @@
       </c>
       <c r="E771">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F771" t="s">
         <v>1700</v>
@@ -23666,7 +23660,7 @@
       </c>
       <c r="B772">
         <f t="shared" si="36"/>
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="C772" t="str">
         <f t="shared" si="37"/>
@@ -23677,7 +23671,7 @@
       </c>
       <c r="E772">
         <f t="shared" ref="E772:E835" si="38">E771</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F772" t="s">
         <v>1701</v>
@@ -23689,7 +23683,7 @@
       </c>
       <c r="B773">
         <f t="shared" si="36"/>
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="C773" t="str">
         <f t="shared" si="37"/>
@@ -23700,7 +23694,7 @@
       </c>
       <c r="E773">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F773" t="s">
         <v>1702</v>
@@ -23712,7 +23706,7 @@
       </c>
       <c r="B774">
         <f t="shared" si="36"/>
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="C774" t="str">
         <f t="shared" si="37"/>
@@ -23723,7 +23717,7 @@
       </c>
       <c r="E774">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F774" t="s">
         <v>1703</v>
@@ -23735,7 +23729,7 @@
       </c>
       <c r="B775">
         <f t="shared" si="36"/>
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="C775" t="str">
         <f t="shared" si="37"/>
@@ -23746,7 +23740,7 @@
       </c>
       <c r="E775">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F775" t="s">
         <v>1704</v>
@@ -23758,7 +23752,7 @@
       </c>
       <c r="B776">
         <f t="shared" si="36"/>
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="C776" t="str">
         <f t="shared" si="37"/>
@@ -23769,7 +23763,7 @@
       </c>
       <c r="E776">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F776" t="s">
         <v>1705</v>
@@ -23781,7 +23775,7 @@
       </c>
       <c r="B777">
         <f t="shared" si="36"/>
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="C777" t="str">
         <f t="shared" si="37"/>
@@ -23792,7 +23786,7 @@
       </c>
       <c r="E777">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F777" t="s">
         <v>1706</v>
@@ -23804,7 +23798,7 @@
       </c>
       <c r="B778">
         <f t="shared" si="36"/>
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="C778" t="str">
         <f t="shared" si="37"/>
@@ -23815,7 +23809,7 @@
       </c>
       <c r="E778">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F778" t="s">
         <v>1707</v>
@@ -23827,7 +23821,7 @@
       </c>
       <c r="B779">
         <f t="shared" si="36"/>
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="C779" t="str">
         <f t="shared" si="37"/>
@@ -23838,7 +23832,7 @@
       </c>
       <c r="E779">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F779" t="s">
         <v>1708</v>
@@ -23850,7 +23844,7 @@
       </c>
       <c r="B780">
         <f t="shared" si="36"/>
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="C780" t="str">
         <f t="shared" si="37"/>
@@ -23861,7 +23855,7 @@
       </c>
       <c r="E780">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F780" t="s">
         <v>1709</v>
@@ -23873,7 +23867,7 @@
       </c>
       <c r="B781">
         <f t="shared" si="36"/>
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="C781" t="str">
         <f t="shared" si="37"/>
@@ -23884,7 +23878,7 @@
       </c>
       <c r="E781">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F781" t="s">
         <v>1710</v>
@@ -23896,7 +23890,7 @@
       </c>
       <c r="B782">
         <f t="shared" si="36"/>
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="C782" t="str">
         <f t="shared" si="37"/>
@@ -23907,7 +23901,7 @@
       </c>
       <c r="E782">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F782" t="s">
         <v>1711</v>
@@ -23919,7 +23913,7 @@
       </c>
       <c r="B783">
         <f t="shared" si="36"/>
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="C783" t="str">
         <f t="shared" si="37"/>
@@ -23930,7 +23924,7 @@
       </c>
       <c r="E783">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F783" t="s">
         <v>1712</v>
@@ -23942,7 +23936,7 @@
       </c>
       <c r="B784">
         <f t="shared" si="36"/>
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="C784" t="str">
         <f t="shared" si="37"/>
@@ -23953,7 +23947,7 @@
       </c>
       <c r="E784">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F784" t="s">
         <v>1713</v>
@@ -23965,7 +23959,7 @@
       </c>
       <c r="B785">
         <f t="shared" si="36"/>
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="C785" t="str">
         <f t="shared" si="37"/>
@@ -23976,7 +23970,7 @@
       </c>
       <c r="E785">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F785" t="s">
         <v>1714</v>
@@ -23988,7 +23982,7 @@
       </c>
       <c r="B786">
         <f t="shared" si="36"/>
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="C786" t="str">
         <f t="shared" si="37"/>
@@ -23999,7 +23993,7 @@
       </c>
       <c r="E786">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F786" t="s">
         <v>1715</v>
@@ -24011,7 +24005,7 @@
       </c>
       <c r="B787">
         <f t="shared" si="36"/>
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="C787" t="str">
         <f t="shared" si="37"/>
@@ -24022,7 +24016,7 @@
       </c>
       <c r="E787">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F787" t="s">
         <v>1716</v>
@@ -24034,7 +24028,7 @@
       </c>
       <c r="B788">
         <f t="shared" si="36"/>
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="C788" t="str">
         <f t="shared" si="37"/>
@@ -24045,7 +24039,7 @@
       </c>
       <c r="E788">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F788" t="s">
         <v>1717</v>
@@ -24057,7 +24051,7 @@
       </c>
       <c r="B789">
         <f t="shared" si="36"/>
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="C789" t="str">
         <f t="shared" si="37"/>
@@ -24068,7 +24062,7 @@
       </c>
       <c r="E789">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F789" t="s">
         <v>1718</v>
@@ -24080,7 +24074,7 @@
       </c>
       <c r="B790">
         <f t="shared" si="36"/>
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="C790" t="str">
         <f t="shared" si="37"/>
@@ -24091,7 +24085,7 @@
       </c>
       <c r="E790">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F790" t="s">
         <v>1719</v>
@@ -24103,7 +24097,7 @@
       </c>
       <c r="B791">
         <f t="shared" si="36"/>
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="C791" t="str">
         <f t="shared" si="37"/>
@@ -24114,7 +24108,7 @@
       </c>
       <c r="E791">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F791" t="s">
         <v>1720</v>
@@ -24126,7 +24120,7 @@
       </c>
       <c r="B792">
         <f t="shared" si="36"/>
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="C792" t="str">
         <f t="shared" si="37"/>
@@ -24137,7 +24131,7 @@
       </c>
       <c r="E792">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F792" t="s">
         <v>1721</v>
@@ -24149,7 +24143,7 @@
       </c>
       <c r="B793">
         <f t="shared" si="36"/>
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="C793" t="str">
         <f t="shared" si="37"/>
@@ -24160,7 +24154,7 @@
       </c>
       <c r="E793">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F793" t="s">
         <v>1722</v>
@@ -24172,7 +24166,7 @@
       </c>
       <c r="B794">
         <f t="shared" si="36"/>
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="C794" t="str">
         <f t="shared" si="37"/>
@@ -24183,7 +24177,7 @@
       </c>
       <c r="E794">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F794" t="s">
         <v>1723</v>
@@ -24195,7 +24189,7 @@
       </c>
       <c r="B795">
         <f t="shared" si="36"/>
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="C795" t="str">
         <f t="shared" si="37"/>
@@ -24206,7 +24200,7 @@
       </c>
       <c r="E795">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F795" t="s">
         <v>1724</v>
@@ -24218,7 +24212,7 @@
       </c>
       <c r="B796">
         <f t="shared" si="36"/>
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="C796" t="str">
         <f t="shared" si="37"/>
@@ -24229,7 +24223,7 @@
       </c>
       <c r="E796">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F796" t="s">
         <v>1725</v>
@@ -24241,7 +24235,7 @@
       </c>
       <c r="B797">
         <f t="shared" ref="B797:B860" si="39">IF(C796="a",B796,B796+1)</f>
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="C797" t="str">
         <f t="shared" ref="C797:C860" si="40">IF(C796="a","b","a")</f>
@@ -24252,7 +24246,7 @@
       </c>
       <c r="E797">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F797" t="s">
         <v>1726</v>
@@ -24264,7 +24258,7 @@
       </c>
       <c r="B798">
         <f t="shared" si="39"/>
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="C798" t="str">
         <f t="shared" si="40"/>
@@ -24275,7 +24269,7 @@
       </c>
       <c r="E798">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F798" t="s">
         <v>1727</v>
@@ -24287,7 +24281,7 @@
       </c>
       <c r="B799">
         <f t="shared" si="39"/>
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="C799" t="str">
         <f t="shared" si="40"/>
@@ -24298,7 +24292,7 @@
       </c>
       <c r="E799">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F799" t="s">
         <v>1728</v>
@@ -24310,7 +24304,7 @@
       </c>
       <c r="B800">
         <f t="shared" si="39"/>
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="C800" t="str">
         <f t="shared" si="40"/>
@@ -24321,7 +24315,7 @@
       </c>
       <c r="E800">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F800" t="s">
         <v>1729</v>
@@ -24333,7 +24327,7 @@
       </c>
       <c r="B801">
         <f t="shared" si="39"/>
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="C801" t="str">
         <f t="shared" si="40"/>
@@ -24344,7 +24338,7 @@
       </c>
       <c r="E801">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F801" t="s">
         <v>1730</v>
@@ -24356,7 +24350,7 @@
       </c>
       <c r="B802">
         <f t="shared" si="39"/>
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="C802" t="str">
         <f t="shared" si="40"/>
@@ -24367,7 +24361,7 @@
       </c>
       <c r="E802">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F802" t="s">
         <v>1731</v>
@@ -24379,7 +24373,7 @@
       </c>
       <c r="B803">
         <f t="shared" si="39"/>
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="C803" t="str">
         <f t="shared" si="40"/>
@@ -24390,7 +24384,7 @@
       </c>
       <c r="E803">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F803" t="s">
         <v>1732</v>
@@ -24402,7 +24396,7 @@
       </c>
       <c r="B804">
         <f t="shared" si="39"/>
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="C804" t="str">
         <f t="shared" si="40"/>
@@ -24413,7 +24407,7 @@
       </c>
       <c r="E804">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F804" t="s">
         <v>1733</v>
@@ -24425,7 +24419,7 @@
       </c>
       <c r="B805">
         <f t="shared" si="39"/>
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="C805" t="str">
         <f t="shared" si="40"/>
@@ -24436,7 +24430,7 @@
       </c>
       <c r="E805">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F805" t="s">
         <v>1734</v>
@@ -24448,7 +24442,7 @@
       </c>
       <c r="B806">
         <f t="shared" si="39"/>
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="C806" t="str">
         <f t="shared" si="40"/>
@@ -24459,7 +24453,7 @@
       </c>
       <c r="E806">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F806" t="s">
         <v>1735</v>
@@ -24471,7 +24465,7 @@
       </c>
       <c r="B807">
         <f t="shared" si="39"/>
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="C807" t="str">
         <f t="shared" si="40"/>
@@ -24482,7 +24476,7 @@
       </c>
       <c r="E807">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F807" t="s">
         <v>1736</v>
@@ -24494,7 +24488,7 @@
       </c>
       <c r="B808">
         <f t="shared" si="39"/>
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="C808" t="str">
         <f t="shared" si="40"/>
@@ -24505,7 +24499,7 @@
       </c>
       <c r="E808">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F808" t="s">
         <v>1737</v>
@@ -24517,7 +24511,7 @@
       </c>
       <c r="B809">
         <f t="shared" si="39"/>
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="C809" t="str">
         <f t="shared" si="40"/>
@@ -24528,7 +24522,7 @@
       </c>
       <c r="E809">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F809" t="s">
         <v>1738</v>
@@ -24540,7 +24534,7 @@
       </c>
       <c r="B810">
         <f t="shared" si="39"/>
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="C810" t="str">
         <f t="shared" si="40"/>
@@ -24551,7 +24545,7 @@
       </c>
       <c r="E810">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F810" t="s">
         <v>1739</v>
@@ -24563,7 +24557,7 @@
       </c>
       <c r="B811">
         <f t="shared" si="39"/>
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="C811" t="str">
         <f t="shared" si="40"/>
@@ -24574,7 +24568,7 @@
       </c>
       <c r="E811">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F811" t="s">
         <v>1740</v>
@@ -24586,7 +24580,7 @@
       </c>
       <c r="B812">
         <f t="shared" si="39"/>
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="C812" t="str">
         <f t="shared" si="40"/>
@@ -24597,7 +24591,7 @@
       </c>
       <c r="E812">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F812" t="s">
         <v>1741</v>
@@ -24609,7 +24603,7 @@
       </c>
       <c r="B813">
         <f t="shared" si="39"/>
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="C813" t="str">
         <f t="shared" si="40"/>
@@ -24620,7 +24614,7 @@
       </c>
       <c r="E813">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F813" t="s">
         <v>1742</v>
@@ -24632,7 +24626,7 @@
       </c>
       <c r="B814">
         <f t="shared" si="39"/>
-        <v>183</v>
+        <v>46</v>
       </c>
       <c r="C814" t="str">
         <f t="shared" si="40"/>
@@ -24643,7 +24637,7 @@
       </c>
       <c r="E814">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F814" t="s">
         <v>1743</v>
@@ -24655,7 +24649,7 @@
       </c>
       <c r="B815">
         <f t="shared" si="39"/>
-        <v>183</v>
+        <v>46</v>
       </c>
       <c r="C815" t="str">
         <f t="shared" si="40"/>
@@ -24666,7 +24660,7 @@
       </c>
       <c r="E815">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F815" t="s">
         <v>1744</v>
@@ -24678,7 +24672,7 @@
       </c>
       <c r="B816">
         <f t="shared" si="39"/>
-        <v>184</v>
+        <v>47</v>
       </c>
       <c r="C816" t="str">
         <f t="shared" si="40"/>
@@ -24689,7 +24683,7 @@
       </c>
       <c r="E816">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F816" t="s">
         <v>1745</v>
@@ -24701,7 +24695,7 @@
       </c>
       <c r="B817">
         <f t="shared" si="39"/>
-        <v>184</v>
+        <v>47</v>
       </c>
       <c r="C817" t="str">
         <f t="shared" si="40"/>
@@ -24712,7 +24706,7 @@
       </c>
       <c r="E817">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F817" t="s">
         <v>1746</v>
@@ -24724,7 +24718,7 @@
       </c>
       <c r="B818">
         <f t="shared" si="39"/>
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="C818" t="str">
         <f t="shared" si="40"/>
@@ -24735,7 +24729,7 @@
       </c>
       <c r="E818">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F818" t="s">
         <v>1747</v>
@@ -24747,7 +24741,7 @@
       </c>
       <c r="B819">
         <f t="shared" si="39"/>
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="C819" t="str">
         <f t="shared" si="40"/>
@@ -24758,7 +24752,7 @@
       </c>
       <c r="E819">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F819" t="s">
         <v>1748</v>
@@ -24770,7 +24764,7 @@
       </c>
       <c r="B820">
         <f t="shared" si="39"/>
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="C820" t="str">
         <f t="shared" si="40"/>
@@ -24781,7 +24775,7 @@
       </c>
       <c r="E820">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F820" t="s">
         <v>1749</v>
@@ -24793,7 +24787,7 @@
       </c>
       <c r="B821">
         <f t="shared" si="39"/>
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="C821" t="str">
         <f t="shared" si="40"/>
@@ -24804,7 +24798,7 @@
       </c>
       <c r="E821">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F821" t="s">
         <v>1750</v>
@@ -24816,7 +24810,7 @@
       </c>
       <c r="B822">
         <f t="shared" si="39"/>
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="C822" t="str">
         <f t="shared" si="40"/>
@@ -24827,7 +24821,7 @@
       </c>
       <c r="E822">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F822" t="s">
         <v>1751</v>
@@ -24839,7 +24833,7 @@
       </c>
       <c r="B823">
         <f t="shared" si="39"/>
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="C823" t="str">
         <f t="shared" si="40"/>
@@ -24850,7 +24844,7 @@
       </c>
       <c r="E823">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F823" t="s">
         <v>1752</v>
@@ -24862,7 +24856,7 @@
       </c>
       <c r="B824">
         <f t="shared" si="39"/>
-        <v>188</v>
+        <v>51</v>
       </c>
       <c r="C824" t="str">
         <f t="shared" si="40"/>
@@ -24873,7 +24867,7 @@
       </c>
       <c r="E824">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F824" t="s">
         <v>1753</v>
@@ -24885,7 +24879,7 @@
       </c>
       <c r="B825">
         <f t="shared" si="39"/>
-        <v>188</v>
+        <v>51</v>
       </c>
       <c r="C825" t="str">
         <f t="shared" si="40"/>
@@ -24896,7 +24890,7 @@
       </c>
       <c r="E825">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F825" t="s">
         <v>1754</v>
@@ -24908,7 +24902,7 @@
       </c>
       <c r="B826">
         <f t="shared" si="39"/>
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="C826" t="str">
         <f t="shared" si="40"/>
@@ -24919,7 +24913,7 @@
       </c>
       <c r="E826">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F826" t="s">
         <v>1755</v>
@@ -24931,7 +24925,7 @@
       </c>
       <c r="B827">
         <f t="shared" si="39"/>
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="C827" t="str">
         <f t="shared" si="40"/>
@@ -24942,7 +24936,7 @@
       </c>
       <c r="E827">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F827" t="s">
         <v>1756</v>
@@ -24954,7 +24948,7 @@
       </c>
       <c r="B828">
         <f t="shared" si="39"/>
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="C828" t="str">
         <f t="shared" si="40"/>
@@ -24965,7 +24959,7 @@
       </c>
       <c r="E828">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F828" t="s">
         <v>1757</v>
@@ -24977,7 +24971,7 @@
       </c>
       <c r="B829">
         <f t="shared" si="39"/>
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="C829" t="str">
         <f t="shared" si="40"/>
@@ -24988,7 +24982,7 @@
       </c>
       <c r="E829">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F829" t="s">
         <v>1758</v>
@@ -25000,7 +24994,7 @@
       </c>
       <c r="B830">
         <f t="shared" si="39"/>
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="C830" t="str">
         <f t="shared" si="40"/>
@@ -25011,7 +25005,7 @@
       </c>
       <c r="E830">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F830" t="s">
         <v>1759</v>
@@ -25023,7 +25017,7 @@
       </c>
       <c r="B831">
         <f t="shared" si="39"/>
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="C831" t="str">
         <f t="shared" si="40"/>
@@ -25034,7 +25028,7 @@
       </c>
       <c r="E831">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F831" t="s">
         <v>1760</v>
@@ -25046,7 +25040,7 @@
       </c>
       <c r="B832">
         <f t="shared" si="39"/>
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="C832" t="str">
         <f t="shared" si="40"/>
@@ -25057,7 +25051,7 @@
       </c>
       <c r="E832">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F832" t="s">
         <v>1761</v>
@@ -25069,7 +25063,7 @@
       </c>
       <c r="B833">
         <f t="shared" si="39"/>
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="C833" t="str">
         <f t="shared" si="40"/>
@@ -25080,7 +25074,7 @@
       </c>
       <c r="E833">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F833" t="s">
         <v>1762</v>
@@ -25092,7 +25086,7 @@
       </c>
       <c r="B834">
         <f t="shared" si="39"/>
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="C834" t="str">
         <f t="shared" si="40"/>
@@ -25103,7 +25097,7 @@
       </c>
       <c r="E834">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F834" t="s">
         <v>1763</v>
@@ -25115,7 +25109,7 @@
       </c>
       <c r="B835">
         <f t="shared" si="39"/>
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="C835" t="str">
         <f t="shared" si="40"/>
@@ -25126,7 +25120,7 @@
       </c>
       <c r="E835">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F835" t="s">
         <v>1764</v>
@@ -25138,7 +25132,7 @@
       </c>
       <c r="B836">
         <f t="shared" si="39"/>
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="C836" t="str">
         <f t="shared" si="40"/>
@@ -25149,7 +25143,7 @@
       </c>
       <c r="E836">
         <f t="shared" ref="E836:E899" si="41">E835</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F836" t="s">
         <v>1765</v>
@@ -25161,7 +25155,7 @@
       </c>
       <c r="B837">
         <f t="shared" si="39"/>
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="C837" t="str">
         <f t="shared" si="40"/>
@@ -25172,7 +25166,7 @@
       </c>
       <c r="E837">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F837" t="s">
         <v>1766</v>
@@ -25184,7 +25178,7 @@
       </c>
       <c r="B838">
         <f t="shared" si="39"/>
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="C838" t="str">
         <f t="shared" si="40"/>
@@ -25195,7 +25189,7 @@
       </c>
       <c r="E838">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F838" t="s">
         <v>1767</v>
@@ -25207,7 +25201,7 @@
       </c>
       <c r="B839">
         <f t="shared" si="39"/>
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="C839" t="str">
         <f t="shared" si="40"/>
@@ -25218,7 +25212,7 @@
       </c>
       <c r="E839">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F839" t="s">
         <v>1768</v>
@@ -25230,7 +25224,7 @@
       </c>
       <c r="B840">
         <f t="shared" si="39"/>
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="C840" t="str">
         <f t="shared" si="40"/>
@@ -25241,7 +25235,7 @@
       </c>
       <c r="E840">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F840" t="s">
         <v>1769</v>
@@ -25253,7 +25247,7 @@
       </c>
       <c r="B841">
         <f t="shared" si="39"/>
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="C841" t="str">
         <f t="shared" si="40"/>
@@ -25264,7 +25258,7 @@
       </c>
       <c r="E841">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F841" t="s">
         <v>1770</v>
@@ -25276,7 +25270,7 @@
       </c>
       <c r="B842">
         <f t="shared" si="39"/>
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="C842" t="str">
         <f t="shared" si="40"/>
@@ -25287,7 +25281,7 @@
       </c>
       <c r="E842">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F842" t="s">
         <v>1771</v>
@@ -25299,7 +25293,7 @@
       </c>
       <c r="B843">
         <f t="shared" si="39"/>
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="C843" t="str">
         <f t="shared" si="40"/>
@@ -25310,7 +25304,7 @@
       </c>
       <c r="E843">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F843" t="s">
         <v>1772</v>
@@ -25322,7 +25316,7 @@
       </c>
       <c r="B844">
         <f t="shared" si="39"/>
-        <v>198</v>
+        <v>61</v>
       </c>
       <c r="C844" t="str">
         <f t="shared" si="40"/>
@@ -25333,7 +25327,7 @@
       </c>
       <c r="E844">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F844" t="s">
         <v>1773</v>
@@ -25345,7 +25339,7 @@
       </c>
       <c r="B845">
         <f t="shared" si="39"/>
-        <v>198</v>
+        <v>61</v>
       </c>
       <c r="C845" t="str">
         <f t="shared" si="40"/>
@@ -25356,7 +25350,7 @@
       </c>
       <c r="E845">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F845" t="s">
         <v>1774</v>
@@ -25368,7 +25362,7 @@
       </c>
       <c r="B846">
         <f t="shared" si="39"/>
-        <v>199</v>
+        <v>62</v>
       </c>
       <c r="C846" t="str">
         <f t="shared" si="40"/>
@@ -25379,7 +25373,7 @@
       </c>
       <c r="E846">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F846" t="s">
         <v>1775</v>
@@ -25391,7 +25385,7 @@
       </c>
       <c r="B847">
         <f t="shared" si="39"/>
-        <v>199</v>
+        <v>62</v>
       </c>
       <c r="C847" t="str">
         <f t="shared" si="40"/>
@@ -25402,7 +25396,7 @@
       </c>
       <c r="E847">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F847" t="s">
         <v>1776</v>
@@ -25414,7 +25408,7 @@
       </c>
       <c r="B848">
         <f t="shared" si="39"/>
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="C848" t="str">
         <f t="shared" si="40"/>
@@ -25425,7 +25419,7 @@
       </c>
       <c r="E848">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F848" t="s">
         <v>1777</v>
@@ -25437,7 +25431,7 @@
       </c>
       <c r="B849">
         <f t="shared" si="39"/>
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="C849" t="str">
         <f t="shared" si="40"/>
@@ -25448,7 +25442,7 @@
       </c>
       <c r="E849">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F849" t="s">
         <v>1778</v>
@@ -25460,7 +25454,7 @@
       </c>
       <c r="B850">
         <f t="shared" si="39"/>
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="C850" t="str">
         <f t="shared" si="40"/>
@@ -25471,7 +25465,7 @@
       </c>
       <c r="E850">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F850" t="s">
         <v>1779</v>
@@ -25483,7 +25477,7 @@
       </c>
       <c r="B851">
         <f t="shared" si="39"/>
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="C851" t="str">
         <f t="shared" si="40"/>
@@ -25494,7 +25488,7 @@
       </c>
       <c r="E851">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F851" t="s">
         <v>1780</v>
@@ -25506,7 +25500,7 @@
       </c>
       <c r="B852">
         <f t="shared" si="39"/>
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="C852" t="str">
         <f t="shared" si="40"/>
@@ -25517,7 +25511,7 @@
       </c>
       <c r="E852">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F852" t="s">
         <v>1781</v>
@@ -25529,7 +25523,7 @@
       </c>
       <c r="B853">
         <f t="shared" si="39"/>
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="C853" t="str">
         <f t="shared" si="40"/>
@@ -25540,7 +25534,7 @@
       </c>
       <c r="E853">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F853" t="s">
         <v>1782</v>
@@ -25552,7 +25546,7 @@
       </c>
       <c r="B854">
         <f t="shared" si="39"/>
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="C854" t="str">
         <f t="shared" si="40"/>
@@ -25563,7 +25557,7 @@
       </c>
       <c r="E854">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F854" t="s">
         <v>1783</v>
@@ -25575,7 +25569,7 @@
       </c>
       <c r="B855">
         <f t="shared" si="39"/>
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="C855" t="str">
         <f t="shared" si="40"/>
@@ -25586,7 +25580,7 @@
       </c>
       <c r="E855">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F855" t="s">
         <v>1784</v>
@@ -25598,7 +25592,7 @@
       </c>
       <c r="B856">
         <f t="shared" si="39"/>
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="C856" t="str">
         <f t="shared" si="40"/>
@@ -25609,7 +25603,7 @@
       </c>
       <c r="E856">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F856" t="s">
         <v>1785</v>
@@ -25621,7 +25615,7 @@
       </c>
       <c r="B857">
         <f t="shared" si="39"/>
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="C857" t="str">
         <f t="shared" si="40"/>
@@ -25632,7 +25626,7 @@
       </c>
       <c r="E857">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F857" t="s">
         <v>1786</v>
@@ -25644,7 +25638,7 @@
       </c>
       <c r="B858">
         <f t="shared" si="39"/>
-        <v>205</v>
+        <v>68</v>
       </c>
       <c r="C858" t="str">
         <f t="shared" si="40"/>
@@ -25655,7 +25649,7 @@
       </c>
       <c r="E858">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F858" t="s">
         <v>1787</v>
@@ -25667,7 +25661,7 @@
       </c>
       <c r="B859">
         <f t="shared" si="39"/>
-        <v>205</v>
+        <v>68</v>
       </c>
       <c r="C859" t="str">
         <f t="shared" si="40"/>
@@ -25678,7 +25672,7 @@
       </c>
       <c r="E859">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F859" t="s">
         <v>1788</v>
@@ -25690,7 +25684,7 @@
       </c>
       <c r="B860">
         <f t="shared" si="39"/>
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="C860" t="str">
         <f t="shared" si="40"/>
@@ -25701,7 +25695,7 @@
       </c>
       <c r="E860">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F860" t="s">
         <v>1789</v>
@@ -25713,7 +25707,7 @@
       </c>
       <c r="B861">
         <f t="shared" ref="B861:B924" si="42">IF(C860="a",B860,B860+1)</f>
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="C861" t="str">
         <f t="shared" ref="C861:C924" si="43">IF(C860="a","b","a")</f>
@@ -25724,7 +25718,7 @@
       </c>
       <c r="E861">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F861" t="s">
         <v>1790</v>
@@ -25736,7 +25730,7 @@
       </c>
       <c r="B862">
         <f t="shared" si="42"/>
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="C862" t="str">
         <f t="shared" si="43"/>
@@ -25747,7 +25741,7 @@
       </c>
       <c r="E862">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F862" t="s">
         <v>1791</v>
@@ -25759,7 +25753,7 @@
       </c>
       <c r="B863">
         <f t="shared" si="42"/>
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="C863" t="str">
         <f t="shared" si="43"/>
@@ -25770,7 +25764,7 @@
       </c>
       <c r="E863">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F863" t="s">
         <v>1792</v>
@@ -25782,7 +25776,7 @@
       </c>
       <c r="B864">
         <f t="shared" si="42"/>
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="C864" t="str">
         <f t="shared" si="43"/>
@@ -25793,7 +25787,7 @@
       </c>
       <c r="E864">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F864" t="s">
         <v>1793</v>
@@ -25805,7 +25799,7 @@
       </c>
       <c r="B865">
         <f t="shared" si="42"/>
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="C865" t="str">
         <f t="shared" si="43"/>
@@ -25816,7 +25810,7 @@
       </c>
       <c r="E865">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F865" t="s">
         <v>1794</v>
@@ -25828,7 +25822,7 @@
       </c>
       <c r="B866">
         <f t="shared" si="42"/>
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="C866" t="str">
         <f t="shared" si="43"/>
@@ -25839,7 +25833,7 @@
       </c>
       <c r="E866">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F866" t="s">
         <v>1795</v>
@@ -25851,7 +25845,7 @@
       </c>
       <c r="B867">
         <f t="shared" si="42"/>
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="C867" t="str">
         <f t="shared" si="43"/>
@@ -25862,7 +25856,7 @@
       </c>
       <c r="E867">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F867" t="s">
         <v>1796</v>
@@ -25874,7 +25868,7 @@
       </c>
       <c r="B868">
         <f t="shared" si="42"/>
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="C868" t="str">
         <f t="shared" si="43"/>
@@ -25885,7 +25879,7 @@
       </c>
       <c r="E868">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F868" t="s">
         <v>1797</v>
@@ -25897,7 +25891,7 @@
       </c>
       <c r="B869">
         <f t="shared" si="42"/>
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="C869" t="str">
         <f t="shared" si="43"/>
@@ -25908,7 +25902,7 @@
       </c>
       <c r="E869">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F869" t="s">
         <v>1798</v>
@@ -25920,7 +25914,7 @@
       </c>
       <c r="B870">
         <f t="shared" si="42"/>
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="C870" t="str">
         <f t="shared" si="43"/>
@@ -25931,7 +25925,7 @@
       </c>
       <c r="E870">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F870" t="s">
         <v>1799</v>
@@ -25943,7 +25937,7 @@
       </c>
       <c r="B871">
         <f t="shared" si="42"/>
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="C871" t="str">
         <f t="shared" si="43"/>
@@ -25954,7 +25948,7 @@
       </c>
       <c r="E871">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F871" t="s">
         <v>1800</v>
@@ -25966,7 +25960,7 @@
       </c>
       <c r="B872">
         <f t="shared" si="42"/>
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="C872" t="str">
         <f t="shared" si="43"/>
@@ -25977,7 +25971,7 @@
       </c>
       <c r="E872">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F872" t="s">
         <v>1801</v>
@@ -25989,7 +25983,7 @@
       </c>
       <c r="B873">
         <f t="shared" si="42"/>
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="C873" t="str">
         <f t="shared" si="43"/>
@@ -26000,7 +25994,7 @@
       </c>
       <c r="E873">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F873" t="s">
         <v>1802</v>
@@ -26012,7 +26006,7 @@
       </c>
       <c r="B874">
         <f t="shared" si="42"/>
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="C874" t="str">
         <f t="shared" si="43"/>
@@ -26023,7 +26017,7 @@
       </c>
       <c r="E874">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F874" t="s">
         <v>1803</v>
@@ -26035,7 +26029,7 @@
       </c>
       <c r="B875">
         <f t="shared" si="42"/>
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="C875" t="str">
         <f t="shared" si="43"/>
@@ -26046,7 +26040,7 @@
       </c>
       <c r="E875">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F875" t="s">
         <v>1804</v>
@@ -26058,7 +26052,7 @@
       </c>
       <c r="B876">
         <f t="shared" si="42"/>
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="C876" t="str">
         <f t="shared" si="43"/>
@@ -26069,7 +26063,7 @@
       </c>
       <c r="E876">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F876" t="s">
         <v>1805</v>
@@ -26081,7 +26075,7 @@
       </c>
       <c r="B877">
         <f t="shared" si="42"/>
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="C877" t="str">
         <f t="shared" si="43"/>
@@ -26092,7 +26086,7 @@
       </c>
       <c r="E877">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F877" t="s">
         <v>1806</v>
@@ -26104,7 +26098,7 @@
       </c>
       <c r="B878">
         <f t="shared" si="42"/>
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="C878" t="str">
         <f t="shared" si="43"/>
@@ -26115,7 +26109,7 @@
       </c>
       <c r="E878">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F878" t="s">
         <v>1807</v>
@@ -26127,7 +26121,7 @@
       </c>
       <c r="B879">
         <f t="shared" si="42"/>
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="C879" t="str">
         <f t="shared" si="43"/>
@@ -26138,7 +26132,7 @@
       </c>
       <c r="E879">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F879" t="s">
         <v>1808</v>
@@ -26150,7 +26144,7 @@
       </c>
       <c r="B880">
         <f t="shared" si="42"/>
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="C880" t="str">
         <f t="shared" si="43"/>
@@ -26161,7 +26155,7 @@
       </c>
       <c r="E880">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F880" t="s">
         <v>1809</v>
@@ -26173,7 +26167,7 @@
       </c>
       <c r="B881">
         <f t="shared" si="42"/>
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="C881" t="str">
         <f t="shared" si="43"/>
@@ -26184,7 +26178,7 @@
       </c>
       <c r="E881">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F881" t="s">
         <v>1810</v>
@@ -26195,8 +26189,7 @@
         <v>881</v>
       </c>
       <c r="B882">
-        <f t="shared" si="42"/>
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="C882" t="str">
         <f t="shared" si="43"/>
@@ -26206,8 +26199,7 @@
         <v>930</v>
       </c>
       <c r="E882">
-        <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F882" t="s">
         <v>1811</v>
@@ -26219,7 +26211,7 @@
       </c>
       <c r="B883">
         <f t="shared" si="42"/>
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="C883" t="str">
         <f t="shared" si="43"/>
@@ -26230,7 +26222,7 @@
       </c>
       <c r="E883">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F883" t="s">
         <v>1812</v>
@@ -26242,7 +26234,7 @@
       </c>
       <c r="B884">
         <f t="shared" si="42"/>
-        <v>218</v>
+        <v>2</v>
       </c>
       <c r="C884" t="str">
         <f t="shared" si="43"/>
@@ -26253,7 +26245,7 @@
       </c>
       <c r="E884">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F884" t="s">
         <v>1813</v>
@@ -26265,7 +26257,7 @@
       </c>
       <c r="B885">
         <f t="shared" si="42"/>
-        <v>218</v>
+        <v>2</v>
       </c>
       <c r="C885" t="str">
         <f t="shared" si="43"/>
@@ -26276,7 +26268,7 @@
       </c>
       <c r="E885">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F885" t="s">
         <v>1814</v>
@@ -26288,7 +26280,7 @@
       </c>
       <c r="B886">
         <f t="shared" si="42"/>
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="C886" t="str">
         <f t="shared" si="43"/>
@@ -26299,7 +26291,7 @@
       </c>
       <c r="E886">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F886" t="s">
         <v>1815</v>
@@ -26311,7 +26303,7 @@
       </c>
       <c r="B887">
         <f t="shared" si="42"/>
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="C887" t="str">
         <f t="shared" si="43"/>
@@ -26322,7 +26314,7 @@
       </c>
       <c r="E887">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F887" t="s">
         <v>1816</v>
@@ -26334,7 +26326,7 @@
       </c>
       <c r="B888">
         <f t="shared" si="42"/>
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="C888" t="str">
         <f t="shared" si="43"/>
@@ -26345,7 +26337,7 @@
       </c>
       <c r="E888">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F888" t="s">
         <v>1817</v>
@@ -26357,7 +26349,7 @@
       </c>
       <c r="B889">
         <f t="shared" si="42"/>
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="C889" t="str">
         <f t="shared" si="43"/>
@@ -26368,7 +26360,7 @@
       </c>
       <c r="E889">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F889" t="s">
         <v>1818</v>
@@ -26380,7 +26372,7 @@
       </c>
       <c r="B890">
         <f t="shared" si="42"/>
-        <v>221</v>
+        <v>5</v>
       </c>
       <c r="C890" t="str">
         <f t="shared" si="43"/>
@@ -26391,7 +26383,7 @@
       </c>
       <c r="E890">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F890" t="s">
         <v>1819</v>
@@ -26403,7 +26395,7 @@
       </c>
       <c r="B891">
         <f t="shared" si="42"/>
-        <v>221</v>
+        <v>5</v>
       </c>
       <c r="C891" t="str">
         <f t="shared" si="43"/>
@@ -26414,7 +26406,7 @@
       </c>
       <c r="E891">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F891" t="s">
         <v>1820</v>
@@ -26426,7 +26418,7 @@
       </c>
       <c r="B892">
         <f t="shared" si="42"/>
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="C892" t="str">
         <f t="shared" si="43"/>
@@ -26437,7 +26429,7 @@
       </c>
       <c r="E892">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F892" t="s">
         <v>1821</v>
@@ -26449,7 +26441,7 @@
       </c>
       <c r="B893">
         <f t="shared" si="42"/>
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="C893" t="str">
         <f t="shared" si="43"/>
@@ -26460,7 +26452,7 @@
       </c>
       <c r="E893">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F893" t="s">
         <v>1822</v>
@@ -26472,7 +26464,7 @@
       </c>
       <c r="B894">
         <f t="shared" si="42"/>
-        <v>223</v>
+        <v>7</v>
       </c>
       <c r="C894" t="str">
         <f t="shared" si="43"/>
@@ -26483,7 +26475,7 @@
       </c>
       <c r="E894">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F894" t="s">
         <v>1823</v>
@@ -26495,7 +26487,7 @@
       </c>
       <c r="B895">
         <f t="shared" si="42"/>
-        <v>223</v>
+        <v>7</v>
       </c>
       <c r="C895" t="str">
         <f t="shared" si="43"/>
@@ -26506,7 +26498,7 @@
       </c>
       <c r="E895">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F895" t="s">
         <v>1824</v>
@@ -26518,7 +26510,7 @@
       </c>
       <c r="B896">
         <f t="shared" si="42"/>
-        <v>224</v>
+        <v>8</v>
       </c>
       <c r="C896" t="str">
         <f t="shared" si="43"/>
@@ -26529,7 +26521,7 @@
       </c>
       <c r="E896">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F896" t="s">
         <v>1825</v>
@@ -26541,7 +26533,7 @@
       </c>
       <c r="B897">
         <f t="shared" si="42"/>
-        <v>224</v>
+        <v>8</v>
       </c>
       <c r="C897" t="str">
         <f t="shared" si="43"/>
@@ -26552,7 +26544,7 @@
       </c>
       <c r="E897">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F897" t="s">
         <v>1826</v>
@@ -26564,7 +26556,7 @@
       </c>
       <c r="B898">
         <f t="shared" si="42"/>
-        <v>225</v>
+        <v>9</v>
       </c>
       <c r="C898" t="str">
         <f t="shared" si="43"/>
@@ -26575,7 +26567,7 @@
       </c>
       <c r="E898">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F898" t="s">
         <v>1827</v>
@@ -26587,7 +26579,7 @@
       </c>
       <c r="B899">
         <f t="shared" si="42"/>
-        <v>225</v>
+        <v>9</v>
       </c>
       <c r="C899" t="str">
         <f t="shared" si="43"/>
@@ -26598,7 +26590,7 @@
       </c>
       <c r="E899">
         <f t="shared" si="41"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F899" t="s">
         <v>1828</v>
@@ -26610,7 +26602,7 @@
       </c>
       <c r="B900">
         <f t="shared" si="42"/>
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="C900" t="str">
         <f t="shared" si="43"/>
@@ -26621,7 +26613,7 @@
       </c>
       <c r="E900">
         <f t="shared" ref="E900:E929" si="44">E899</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F900" t="s">
         <v>1829</v>
@@ -26633,7 +26625,7 @@
       </c>
       <c r="B901">
         <f t="shared" si="42"/>
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="C901" t="str">
         <f t="shared" si="43"/>
@@ -26644,7 +26636,7 @@
       </c>
       <c r="E901">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F901" t="s">
         <v>1830</v>
@@ -26656,7 +26648,7 @@
       </c>
       <c r="B902">
         <f t="shared" si="42"/>
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="C902" t="str">
         <f t="shared" si="43"/>
@@ -26667,7 +26659,7 @@
       </c>
       <c r="E902">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F902" t="s">
         <v>1831</v>
@@ -26679,7 +26671,7 @@
       </c>
       <c r="B903">
         <f t="shared" si="42"/>
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="C903" t="str">
         <f t="shared" si="43"/>
@@ -26690,7 +26682,7 @@
       </c>
       <c r="E903">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F903" t="s">
         <v>1832</v>
@@ -26702,7 +26694,7 @@
       </c>
       <c r="B904">
         <f t="shared" si="42"/>
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="C904" t="str">
         <f t="shared" si="43"/>
@@ -26713,7 +26705,7 @@
       </c>
       <c r="E904">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F904" t="s">
         <v>1833</v>
@@ -26725,7 +26717,7 @@
       </c>
       <c r="B905">
         <f t="shared" si="42"/>
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="C905" t="str">
         <f t="shared" si="43"/>
@@ -26736,7 +26728,7 @@
       </c>
       <c r="E905">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F905" t="s">
         <v>1834</v>
@@ -26748,7 +26740,7 @@
       </c>
       <c r="B906">
         <f t="shared" si="42"/>
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="C906" t="str">
         <f t="shared" si="43"/>
@@ -26759,7 +26751,7 @@
       </c>
       <c r="E906">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F906" t="s">
         <v>1835</v>
@@ -26771,7 +26763,7 @@
       </c>
       <c r="B907">
         <f t="shared" si="42"/>
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="C907" t="str">
         <f t="shared" si="43"/>
@@ -26782,7 +26774,7 @@
       </c>
       <c r="E907">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F907" t="s">
         <v>1836</v>
@@ -26794,7 +26786,7 @@
       </c>
       <c r="B908">
         <f t="shared" si="42"/>
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="C908" t="str">
         <f t="shared" si="43"/>
@@ -26805,7 +26797,7 @@
       </c>
       <c r="E908">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F908" t="s">
         <v>1837</v>
@@ -26817,7 +26809,7 @@
       </c>
       <c r="B909">
         <f t="shared" si="42"/>
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="C909" t="str">
         <f t="shared" si="43"/>
@@ -26828,7 +26820,7 @@
       </c>
       <c r="E909">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F909" t="s">
         <v>1838</v>
@@ -26840,7 +26832,7 @@
       </c>
       <c r="B910">
         <f t="shared" si="42"/>
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="C910" t="str">
         <f t="shared" si="43"/>
@@ -26851,7 +26843,7 @@
       </c>
       <c r="E910">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F910" t="s">
         <v>1839</v>
@@ -26863,7 +26855,7 @@
       </c>
       <c r="B911">
         <f t="shared" si="42"/>
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="C911" t="str">
         <f t="shared" si="43"/>
@@ -26874,7 +26866,7 @@
       </c>
       <c r="E911">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F911" t="s">
         <v>1840</v>
@@ -26886,7 +26878,7 @@
       </c>
       <c r="B912">
         <f t="shared" si="42"/>
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="C912" t="str">
         <f t="shared" si="43"/>
@@ -26897,7 +26889,7 @@
       </c>
       <c r="E912">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F912" t="s">
         <v>1841</v>
@@ -26909,7 +26901,7 @@
       </c>
       <c r="B913">
         <f t="shared" si="42"/>
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="C913" t="str">
         <f t="shared" si="43"/>
@@ -26920,7 +26912,7 @@
       </c>
       <c r="E913">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F913" t="s">
         <v>1842</v>
@@ -26932,7 +26924,7 @@
       </c>
       <c r="B914">
         <f t="shared" si="42"/>
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="C914" t="str">
         <f t="shared" si="43"/>
@@ -26943,7 +26935,7 @@
       </c>
       <c r="E914">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F914" t="s">
         <v>1843</v>
@@ -26955,7 +26947,7 @@
       </c>
       <c r="B915">
         <f t="shared" si="42"/>
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="C915" t="str">
         <f t="shared" si="43"/>
@@ -26966,7 +26958,7 @@
       </c>
       <c r="E915">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F915" t="s">
         <v>1844</v>
@@ -26978,7 +26970,7 @@
       </c>
       <c r="B916">
         <f t="shared" si="42"/>
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="C916" t="str">
         <f t="shared" si="43"/>
@@ -26989,7 +26981,7 @@
       </c>
       <c r="E916">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F916" t="s">
         <v>1845</v>
@@ -27001,7 +26993,7 @@
       </c>
       <c r="B917">
         <f t="shared" si="42"/>
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="C917" t="str">
         <f t="shared" si="43"/>
@@ -27012,7 +27004,7 @@
       </c>
       <c r="E917">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F917" t="s">
         <v>1846</v>
@@ -27024,7 +27016,7 @@
       </c>
       <c r="B918">
         <f t="shared" si="42"/>
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="C918" t="str">
         <f t="shared" si="43"/>
@@ -27035,7 +27027,7 @@
       </c>
       <c r="E918">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F918" t="s">
         <v>1847</v>
@@ -27047,7 +27039,7 @@
       </c>
       <c r="B919">
         <f t="shared" si="42"/>
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="C919" t="str">
         <f t="shared" si="43"/>
@@ -27058,7 +27050,7 @@
       </c>
       <c r="E919">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F919" t="s">
         <v>1848</v>
@@ -27070,7 +27062,7 @@
       </c>
       <c r="B920">
         <f t="shared" si="42"/>
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="C920" t="str">
         <f t="shared" si="43"/>
@@ -27081,7 +27073,7 @@
       </c>
       <c r="E920">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F920" t="s">
         <v>1849</v>
@@ -27093,7 +27085,7 @@
       </c>
       <c r="B921">
         <f t="shared" si="42"/>
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="C921" t="str">
         <f t="shared" si="43"/>
@@ -27104,7 +27096,7 @@
       </c>
       <c r="E921">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F921" t="s">
         <v>1850</v>
@@ -27116,7 +27108,7 @@
       </c>
       <c r="B922">
         <f t="shared" si="42"/>
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="C922" t="str">
         <f t="shared" si="43"/>
@@ -27127,7 +27119,7 @@
       </c>
       <c r="E922">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F922" t="s">
         <v>1851</v>
@@ -27139,7 +27131,7 @@
       </c>
       <c r="B923">
         <f t="shared" si="42"/>
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="C923" t="str">
         <f t="shared" si="43"/>
@@ -27150,7 +27142,7 @@
       </c>
       <c r="E923">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F923" t="s">
         <v>1852</v>
@@ -27162,7 +27154,7 @@
       </c>
       <c r="B924">
         <f t="shared" si="42"/>
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="C924" t="str">
         <f t="shared" si="43"/>
@@ -27173,7 +27165,7 @@
       </c>
       <c r="E924">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F924" t="s">
         <v>1853</v>
@@ -27185,7 +27177,7 @@
       </c>
       <c r="B925">
         <f t="shared" ref="B925:B929" si="45">IF(C924="a",B924,B924+1)</f>
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="C925" t="str">
         <f t="shared" ref="C925:C929" si="46">IF(C924="a","b","a")</f>
@@ -27196,7 +27188,7 @@
       </c>
       <c r="E925">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F925" t="s">
         <v>1854</v>
@@ -27208,7 +27200,7 @@
       </c>
       <c r="B926">
         <f t="shared" si="45"/>
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="C926" t="str">
         <f t="shared" si="46"/>
@@ -27219,7 +27211,7 @@
       </c>
       <c r="E926">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F926" t="s">
         <v>1855</v>
@@ -27231,7 +27223,7 @@
       </c>
       <c r="B927">
         <f t="shared" si="45"/>
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="C927" t="str">
         <f t="shared" si="46"/>
@@ -27242,7 +27234,7 @@
       </c>
       <c r="E927">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F927" t="s">
         <v>1856</v>
@@ -27254,7 +27246,7 @@
       </c>
       <c r="B928">
         <f t="shared" si="45"/>
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="C928" t="str">
         <f t="shared" si="46"/>
@@ -27265,7 +27257,7 @@
       </c>
       <c r="E928">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F928" t="s">
         <v>1857</v>
@@ -27277,7 +27269,7 @@
       </c>
       <c r="B929">
         <f t="shared" si="45"/>
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="C929" t="str">
         <f t="shared" si="46"/>
@@ -27288,7 +27280,7 @@
       </c>
       <c r="E929">
         <f t="shared" si="44"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F929" t="s">
         <v>1858</v>
